--- a/data/Simulations/HR1/Market Data/HR1_market_data_2020.xlsx
+++ b/data/Simulations/HR1/Market Data/HR1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE7167C-719F-45A0-A562-ADB507F4C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02109C7C-8260-4588-A8C8-FF21E174D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="21600" windowHeight="12735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2">
-            <v>0</v>
+            <v>65.322500000000005</v>
           </cell>
           <cell r="C2">
             <v>55.69</v>
@@ -903,7 +903,7 @@
             <v>41.69</v>
           </cell>
           <cell r="F2">
-            <v>0</v>
+            <v>49.042499999999997</v>
           </cell>
           <cell r="G2">
             <v>48.4</v>
@@ -957,7 +957,7 @@
             <v>75.75</v>
           </cell>
           <cell r="X2">
-            <v>0</v>
+            <v>61.945</v>
           </cell>
           <cell r="Y2">
             <v>51</v>
@@ -1182,7 +1182,7 @@
             <v>45.4</v>
           </cell>
           <cell r="Y5">
-            <v>0</v>
+            <v>64.922499999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -1266,13 +1266,13 @@
             <v>32.01</v>
           </cell>
           <cell r="C2">
-            <v>0</v>
+            <v>35.646666666666668</v>
           </cell>
           <cell r="D2">
             <v>16.190000000000001</v>
           </cell>
           <cell r="E2">
-            <v>0</v>
+            <v>32.356666666666662</v>
           </cell>
           <cell r="F2">
             <v>16.190000000000001</v>
@@ -1281,49 +1281,49 @@
             <v>16.190000000000001</v>
           </cell>
           <cell r="H2">
-            <v>0</v>
+            <v>32.356666666666662</v>
           </cell>
           <cell r="I2">
             <v>30.75</v>
           </cell>
           <cell r="J2">
-            <v>0</v>
+            <v>39.46</v>
           </cell>
           <cell r="K2">
-            <v>0</v>
+            <v>35.375</v>
           </cell>
           <cell r="L2">
-            <v>0</v>
+            <v>42.695</v>
           </cell>
           <cell r="M2">
-            <v>0</v>
+            <v>36.936666666666667</v>
           </cell>
           <cell r="N2">
-            <v>0</v>
+            <v>34.646666666666668</v>
           </cell>
           <cell r="O2">
             <v>30.75</v>
           </cell>
           <cell r="P2">
-            <v>0</v>
+            <v>33.19</v>
           </cell>
           <cell r="Q2">
             <v>30.75</v>
           </cell>
           <cell r="R2">
-            <v>0</v>
+            <v>35.375</v>
           </cell>
           <cell r="S2">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="T2">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="U2">
             <v>50.5</v>
           </cell>
           <cell r="V2">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="W2">
             <v>44.44</v>
@@ -1332,12 +1332,12 @@
             <v>42.42</v>
           </cell>
           <cell r="Y2">
-            <v>0</v>
+            <v>31.52333333333333</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0</v>
+            <v>31.963333333333335</v>
           </cell>
           <cell r="C3">
             <v>36.19</v>
@@ -1364,10 +1364,10 @@
             <v>52.5</v>
           </cell>
           <cell r="K3">
-            <v>0</v>
+            <v>35.375</v>
           </cell>
           <cell r="L3">
-            <v>0</v>
+            <v>42.695</v>
           </cell>
           <cell r="M3">
             <v>40.06</v>
@@ -1379,13 +1379,13 @@
             <v>40.06</v>
           </cell>
           <cell r="P3">
-            <v>0</v>
+            <v>33.19</v>
           </cell>
           <cell r="Q3">
             <v>33.19</v>
           </cell>
           <cell r="R3">
-            <v>0</v>
+            <v>35.375</v>
           </cell>
           <cell r="S3">
             <v>40.06</v>
@@ -1394,7 +1394,7 @@
             <v>40.06</v>
           </cell>
           <cell r="U3">
-            <v>0</v>
+            <v>43.54</v>
           </cell>
           <cell r="V3">
             <v>40.06</v>
@@ -1414,19 +1414,19 @@
             <v>33.19</v>
           </cell>
           <cell r="C4">
-            <v>0</v>
+            <v>35.646666666666668</v>
           </cell>
           <cell r="D4">
             <v>33.19</v>
           </cell>
           <cell r="E4">
-            <v>0</v>
+            <v>32.356666666666662</v>
           </cell>
           <cell r="F4">
             <v>31.67</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>25.636666666666667</v>
           </cell>
           <cell r="H4">
             <v>33.19</v>
@@ -1456,13 +1456,13 @@
             <v>33.19</v>
           </cell>
           <cell r="Q4">
-            <v>0</v>
+            <v>31.543333333333333</v>
           </cell>
           <cell r="R4">
             <v>40.06</v>
           </cell>
           <cell r="S4">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="T4">
             <v>40.06</v>
@@ -1474,13 +1474,13 @@
             <v>40.06</v>
           </cell>
           <cell r="W4">
-            <v>0</v>
+            <v>41.52</v>
           </cell>
           <cell r="X4">
             <v>40.69</v>
           </cell>
           <cell r="Y4">
-            <v>0</v>
+            <v>31.52333333333333</v>
           </cell>
         </row>
         <row r="5">
@@ -1497,31 +1497,31 @@
             <v>33.19</v>
           </cell>
           <cell r="F5">
-            <v>0</v>
+            <v>27.145</v>
           </cell>
           <cell r="G5">
-            <v>0</v>
+            <v>25.636666666666667</v>
           </cell>
           <cell r="H5">
-            <v>0</v>
+            <v>32.356666666666662</v>
           </cell>
           <cell r="I5">
-            <v>0</v>
+            <v>35.3825</v>
           </cell>
           <cell r="J5">
-            <v>0</v>
+            <v>39.46</v>
           </cell>
           <cell r="K5">
-            <v>0</v>
+            <v>35.375</v>
           </cell>
           <cell r="L5">
-            <v>0</v>
+            <v>42.695</v>
           </cell>
           <cell r="M5">
-            <v>0</v>
+            <v>36.936666666666667</v>
           </cell>
           <cell r="N5">
-            <v>0</v>
+            <v>34.646666666666668</v>
           </cell>
           <cell r="O5">
             <v>33.19</v>
@@ -1536,22 +1536,22 @@
             <v>30.69</v>
           </cell>
           <cell r="S5">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="T5">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="U5">
-            <v>0</v>
+            <v>43.54</v>
           </cell>
           <cell r="V5">
             <v>40.06</v>
           </cell>
           <cell r="W5">
-            <v>0</v>
+            <v>41.52</v>
           </cell>
           <cell r="X5">
-            <v>0</v>
+            <v>38.465000000000003</v>
           </cell>
           <cell r="Y5">
             <v>30.69</v>
@@ -1601,25 +1601,25 @@
             <v>30.69</v>
           </cell>
           <cell r="P6">
-            <v>0</v>
+            <v>33.19</v>
           </cell>
           <cell r="Q6">
-            <v>0</v>
+            <v>31.543333333333333</v>
           </cell>
           <cell r="R6">
-            <v>0</v>
+            <v>35.375</v>
           </cell>
           <cell r="S6">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="T6">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="U6">
             <v>40.06</v>
           </cell>
           <cell r="V6">
-            <v>0</v>
+            <v>40.06</v>
           </cell>
           <cell r="W6">
             <v>40.06</v>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B4B357-A191-4ADB-99F3-51F24895E56A}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:Y6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,6 +3138,32 @@
         <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.48</v>
       </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3237,7 +3263,7 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>65.322500000000005</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
@@ -3253,7 +3279,7 @@
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>49.042499999999997</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
@@ -3325,7 +3351,7 @@
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>61.945</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
@@ -3632,7 +3658,7 @@
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>64.922499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3745,7 +3771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12992CFE-83F1-4576-AC00-4B8C55B0083F}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3838,7 +3864,7 @@
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.646666666666668</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3846,7 +3872,7 @@
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>32.356666666666662</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3858,7 +3884,7 @@
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>32.356666666666662</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3866,23 +3892,23 @@
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>39.46</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.375</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>42.695</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>36.936666666666667</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>34.646666666666668</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3890,7 +3916,7 @@
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>33.19</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3898,15 +3924,15 @@
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.375</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3914,7 +3940,7 @@
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3926,7 +3952,7 @@
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>31.52333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3935,7 +3961,7 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>31.963333333333335</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3971,11 +3997,11 @@
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.375</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>42.695</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3991,7 +4017,7 @@
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>33.19</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -3999,7 +4025,7 @@
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.375</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4011,7 +4037,7 @@
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4040,7 +4066,7 @@
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.646666666666668</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4048,7 +4074,7 @@
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>32.356666666666662</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4056,7 +4082,7 @@
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>25.636666666666667</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4096,7 +4122,7 @@
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>31.543333333333333</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4104,7 +4130,7 @@
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4120,7 +4146,7 @@
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>41.52</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4128,7 +4154,7 @@
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>31.52333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4153,39 +4179,39 @@
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>27.145</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>25.636666666666667</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>32.356666666666662</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.3825</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>39.46</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.375</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>42.695</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>36.936666666666667</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>34.646666666666668</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4205,15 +4231,15 @@
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4221,11 +4247,11 @@
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>41.52</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>38.465000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4294,23 +4320,23 @@
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>33.19</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>31.543333333333333</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>35.375</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -4318,7 +4344,7 @@
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>

--- a/data/Simulations/HR1/Market Data/HR1_market_data_2020.xlsx
+++ b/data/Simulations/HR1/Market Data/HR1_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02109C7C-8260-4588-A8C8-FF21E174D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF244E-0F69-4FA3-B4DC-9889C8C10208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>

--- a/data/Simulations/HR1/Market Data/HR1_market_data_2020.xlsx
+++ b/data/Simulations/HR1/Market Data/HR1_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF244E-0F69-4FA3-B4DC-9889C8C10208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B375E-3E65-44F8-8FDB-94CE9E97D595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,13 @@
     <sheet name="Csr, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId5"/>
+    <sheet name="Cp, Summer" sheetId="6" r:id="rId6"/>
+    <sheet name="Csr, Summer" sheetId="7" r:id="rId7"/>
+    <sheet name="Ctr_up, Summer" sheetId="8" r:id="rId8"/>
+    <sheet name="Ctr_down, Summer" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
@@ -116,6 +120,10 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Energy, Summer"/>
+      <sheetName val="Secondary Reserve, Summer"/>
+      <sheetName val="Tertiary Reserve Up, Summer"/>
+      <sheetName val="Tertiary Reserve Down, Summer"/>
       <sheetName val="Energy, Winter"/>
       <sheetName val="Secondary Reserve, Winter"/>
       <sheetName val="Tertiary Reserve Up, Winter"/>
@@ -130,1505 +138,2990 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>32.4</v>
+            <v>34.65</v>
           </cell>
           <cell r="C2">
-            <v>24.1</v>
+            <v>27.5</v>
           </cell>
           <cell r="D2">
-            <v>19.72</v>
+            <v>25.7</v>
           </cell>
           <cell r="E2">
-            <v>18.96</v>
+            <v>25.1</v>
           </cell>
           <cell r="F2">
-            <v>19.510000000000002</v>
+            <v>25.1</v>
           </cell>
           <cell r="G2">
-            <v>22.07</v>
+            <v>26.51</v>
           </cell>
           <cell r="H2">
-            <v>28.7</v>
+            <v>34.64</v>
           </cell>
           <cell r="I2">
-            <v>39.049999999999997</v>
+            <v>39.270000000000003</v>
           </cell>
           <cell r="J2">
-            <v>45.01</v>
+            <v>38.119999999999997</v>
           </cell>
           <cell r="K2">
-            <v>46.85</v>
+            <v>37.68</v>
           </cell>
           <cell r="L2">
-            <v>47.02</v>
+            <v>34.950000000000003</v>
           </cell>
           <cell r="M2">
-            <v>44.3</v>
+            <v>33.659999999999997</v>
           </cell>
           <cell r="N2">
-            <v>41.05</v>
+            <v>34.28</v>
           </cell>
           <cell r="O2">
-            <v>39.049999999999997</v>
+            <v>35</v>
           </cell>
           <cell r="P2">
-            <v>38.68</v>
+            <v>34.65</v>
           </cell>
           <cell r="Q2">
-            <v>37.85</v>
+            <v>32.840000000000003</v>
           </cell>
           <cell r="R2">
-            <v>41.09</v>
+            <v>34</v>
           </cell>
           <cell r="S2">
-            <v>45.36</v>
+            <v>37.409999999999997</v>
           </cell>
           <cell r="T2">
-            <v>50.29</v>
+            <v>36.18</v>
           </cell>
           <cell r="U2">
-            <v>52.97</v>
+            <v>36.1</v>
           </cell>
           <cell r="V2">
-            <v>54.26</v>
+            <v>38.99</v>
           </cell>
           <cell r="W2">
-            <v>49.75</v>
+            <v>39</v>
           </cell>
           <cell r="X2">
-            <v>46.24</v>
+            <v>38.99</v>
           </cell>
           <cell r="Y2">
-            <v>43.6</v>
+            <v>34.64</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>43.84</v>
+            <v>34.47</v>
           </cell>
           <cell r="C3">
-            <v>40.43</v>
+            <v>29.79</v>
           </cell>
           <cell r="D3">
-            <v>36.75</v>
+            <v>28.16</v>
           </cell>
           <cell r="E3">
-            <v>34.31</v>
+            <v>27.74</v>
           </cell>
           <cell r="F3">
-            <v>33.5</v>
+            <v>27</v>
           </cell>
           <cell r="G3">
-            <v>36.03</v>
+            <v>26.77</v>
           </cell>
           <cell r="H3">
-            <v>45.55</v>
+            <v>27</v>
           </cell>
           <cell r="I3">
-            <v>49.52</v>
+            <v>27.85</v>
           </cell>
           <cell r="J3">
-            <v>53.01</v>
+            <v>33.26</v>
           </cell>
           <cell r="K3">
-            <v>55.6</v>
+            <v>36.4</v>
           </cell>
           <cell r="L3">
-            <v>55.68</v>
+            <v>36.15</v>
           </cell>
           <cell r="M3">
-            <v>53.7</v>
+            <v>36.520000000000003</v>
           </cell>
           <cell r="N3">
-            <v>51.86</v>
+            <v>36.979999999999997</v>
           </cell>
           <cell r="O3">
-            <v>52.01</v>
+            <v>37.5</v>
           </cell>
           <cell r="P3">
-            <v>50.45</v>
+            <v>37.130000000000003</v>
           </cell>
           <cell r="Q3">
-            <v>50.27</v>
+            <v>36.57</v>
           </cell>
           <cell r="R3">
-            <v>52.36</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="S3">
-            <v>54.96</v>
+            <v>38.299999999999997</v>
           </cell>
           <cell r="T3">
-            <v>59.96</v>
+            <v>37.549999999999997</v>
           </cell>
           <cell r="U3">
-            <v>59.86</v>
+            <v>37</v>
           </cell>
           <cell r="V3">
-            <v>56.5</v>
+            <v>35.42</v>
           </cell>
           <cell r="W3">
-            <v>52.95</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="X3">
-            <v>51.13</v>
+            <v>35.01</v>
           </cell>
           <cell r="Y3">
-            <v>47.64</v>
+            <v>31.97</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>42.11</v>
+            <v>35.549999999999997</v>
           </cell>
           <cell r="C4">
-            <v>37.03</v>
+            <v>27.82</v>
           </cell>
           <cell r="D4">
-            <v>35.25</v>
+            <v>26.69</v>
           </cell>
           <cell r="E4">
-            <v>31.82</v>
+            <v>26</v>
           </cell>
           <cell r="F4">
-            <v>31.67</v>
+            <v>26</v>
           </cell>
           <cell r="G4">
-            <v>34</v>
+            <v>26.22</v>
           </cell>
           <cell r="H4">
-            <v>36.99</v>
+            <v>27.18</v>
           </cell>
           <cell r="I4">
-            <v>45.86</v>
+            <v>27.7</v>
           </cell>
           <cell r="J4">
-            <v>50.47</v>
+            <v>31.63</v>
           </cell>
           <cell r="K4">
-            <v>54.07</v>
+            <v>34.07</v>
           </cell>
           <cell r="L4">
-            <v>54.66</v>
+            <v>31.26</v>
           </cell>
           <cell r="M4">
-            <v>54</v>
+            <v>27.77</v>
           </cell>
           <cell r="N4">
-            <v>53.48</v>
+            <v>33</v>
           </cell>
           <cell r="O4">
-            <v>52.36</v>
+            <v>34.99</v>
           </cell>
           <cell r="P4">
-            <v>52.84</v>
+            <v>32.99</v>
           </cell>
           <cell r="Q4">
-            <v>53.95</v>
+            <v>33.53</v>
           </cell>
           <cell r="R4">
-            <v>54.59</v>
+            <v>34.07</v>
           </cell>
           <cell r="S4">
-            <v>57.76</v>
+            <v>32.57</v>
           </cell>
           <cell r="T4">
-            <v>61.08</v>
+            <v>27.77</v>
           </cell>
           <cell r="U4">
-            <v>60.54</v>
+            <v>29.36</v>
           </cell>
           <cell r="V4">
-            <v>56.75</v>
+            <v>34.07</v>
           </cell>
           <cell r="W4">
-            <v>52.44</v>
+            <v>37.11</v>
           </cell>
           <cell r="X4">
-            <v>51.86</v>
+            <v>36.92</v>
           </cell>
           <cell r="Y4">
-            <v>52.26</v>
+            <v>31.14</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>50.87</v>
+            <v>36.19</v>
           </cell>
           <cell r="C5">
-            <v>48.19</v>
+            <v>32.5</v>
           </cell>
           <cell r="D5">
-            <v>44.68</v>
+            <v>27.82</v>
           </cell>
           <cell r="E5">
-            <v>38.5</v>
+            <v>27.5</v>
           </cell>
           <cell r="F5">
+            <v>27.04</v>
+          </cell>
+          <cell r="G5">
+            <v>27.82</v>
+          </cell>
+          <cell r="H5">
+            <v>29.24</v>
+          </cell>
+          <cell r="I5">
+            <v>36.03</v>
+          </cell>
+          <cell r="J5">
+            <v>36.22</v>
+          </cell>
+          <cell r="K5">
+            <v>37</v>
+          </cell>
+          <cell r="L5">
             <v>36.799999999999997</v>
           </cell>
-          <cell r="G5">
-            <v>36.549999999999997</v>
-          </cell>
-          <cell r="H5">
-            <v>36.6</v>
-          </cell>
-          <cell r="I5">
-            <v>36.549999999999997</v>
-          </cell>
-          <cell r="J5">
-            <v>36.549999999999997</v>
-          </cell>
-          <cell r="K5">
-            <v>36.549999999999997</v>
-          </cell>
-          <cell r="L5">
-            <v>37.549999999999997</v>
-          </cell>
           <cell r="M5">
-            <v>37.549999999999997</v>
+            <v>36.799999999999997</v>
           </cell>
           <cell r="N5">
-            <v>37.549999999999997</v>
+            <v>37.65</v>
           </cell>
           <cell r="O5">
-            <v>37.549999999999997</v>
+            <v>39.93</v>
           </cell>
           <cell r="P5">
-            <v>36.6</v>
+            <v>38.799999999999997</v>
           </cell>
           <cell r="Q5">
-            <v>35.5</v>
+            <v>37.65</v>
           </cell>
           <cell r="R5">
-            <v>36</v>
+            <v>37.51</v>
           </cell>
           <cell r="S5">
-            <v>38.5</v>
+            <v>37.049999999999997</v>
           </cell>
           <cell r="T5">
-            <v>52.01</v>
+            <v>36.56</v>
           </cell>
           <cell r="U5">
-            <v>55.16</v>
+            <v>36.32</v>
           </cell>
           <cell r="V5">
-            <v>57.4</v>
+            <v>36.5</v>
           </cell>
           <cell r="W5">
-            <v>53.86</v>
+            <v>37.049999999999997</v>
           </cell>
           <cell r="X5">
-            <v>53.45</v>
+            <v>36.72</v>
           </cell>
           <cell r="Y5">
-            <v>49.72</v>
+            <v>34.72</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>46.69</v>
+            <v>35.299999999999997</v>
           </cell>
           <cell r="C6">
-            <v>42.43</v>
+            <v>30</v>
           </cell>
           <cell r="D6">
-            <v>40.1</v>
+            <v>27</v>
           </cell>
           <cell r="E6">
-            <v>39.11</v>
+            <v>26.5</v>
           </cell>
           <cell r="F6">
-            <v>37.549999999999997</v>
+            <v>26.5</v>
           </cell>
           <cell r="G6">
-            <v>37.700000000000003</v>
+            <v>27.2</v>
           </cell>
           <cell r="H6">
-            <v>39.6</v>
+            <v>28.56</v>
           </cell>
           <cell r="I6">
-            <v>43.34</v>
+            <v>28.34</v>
           </cell>
           <cell r="J6">
-            <v>48.45</v>
+            <v>30.02</v>
           </cell>
           <cell r="K6">
-            <v>51.6</v>
+            <v>31.18</v>
           </cell>
           <cell r="L6">
-            <v>52</v>
+            <v>30.53</v>
           </cell>
           <cell r="M6">
-            <v>51.25</v>
+            <v>30.47</v>
           </cell>
           <cell r="N6">
-            <v>50.56</v>
+            <v>33.49</v>
           </cell>
           <cell r="O6">
-            <v>50.57</v>
+            <v>36.049999999999997</v>
           </cell>
           <cell r="P6">
-            <v>50.57</v>
+            <v>35.74</v>
           </cell>
           <cell r="Q6">
-            <v>48.45</v>
+            <v>34.49</v>
           </cell>
           <cell r="R6">
-            <v>50.25</v>
+            <v>33.99</v>
           </cell>
           <cell r="S6">
-            <v>54.23</v>
+            <v>33.49</v>
           </cell>
           <cell r="T6">
-            <v>58.65</v>
+            <v>32.24</v>
           </cell>
           <cell r="U6">
-            <v>60.43</v>
+            <v>35.01</v>
           </cell>
           <cell r="V6">
-            <v>60.03</v>
+            <v>36.049999999999997</v>
           </cell>
           <cell r="W6">
-            <v>55.03</v>
+            <v>37</v>
           </cell>
           <cell r="X6">
-            <v>52.25</v>
+            <v>37</v>
           </cell>
           <cell r="Y6">
-            <v>48.45</v>
+            <v>36</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>28.03</v>
+            <v>11.09</v>
           </cell>
           <cell r="C2">
-            <v>26.28</v>
+            <v>18.989999999999998</v>
           </cell>
           <cell r="D2">
-            <v>23.32</v>
+            <v>10.62</v>
           </cell>
           <cell r="E2">
-            <v>23.99</v>
+            <v>10.62</v>
           </cell>
           <cell r="F2">
-            <v>23.5</v>
+            <v>10.62</v>
           </cell>
           <cell r="G2">
-            <v>21.67</v>
+            <v>10.62</v>
           </cell>
           <cell r="H2">
-            <v>19.920000000000002</v>
+            <v>10.42</v>
           </cell>
           <cell r="I2">
-            <v>14.28</v>
+            <v>6.72</v>
           </cell>
           <cell r="J2">
-            <v>10.5</v>
+            <v>6.96</v>
           </cell>
           <cell r="K2">
-            <v>8.92</v>
+            <v>7.46</v>
           </cell>
           <cell r="L2">
-            <v>5.33</v>
+            <v>10.48</v>
           </cell>
           <cell r="M2">
-            <v>4.49</v>
+            <v>9.4</v>
           </cell>
           <cell r="N2">
-            <v>5.24</v>
+            <v>8.4600000000000009</v>
           </cell>
           <cell r="O2">
-            <v>7.99</v>
+            <v>8.6300000000000008</v>
           </cell>
           <cell r="P2">
-            <v>8.9</v>
+            <v>8.4600000000000009</v>
           </cell>
           <cell r="Q2">
-            <v>9.65</v>
+            <v>10.89</v>
           </cell>
           <cell r="R2">
-            <v>7.63</v>
+            <v>9.8699999999999992</v>
           </cell>
           <cell r="S2">
-            <v>3.93</v>
+            <v>8.06</v>
           </cell>
           <cell r="T2">
-            <v>5.3</v>
+            <v>8.06</v>
           </cell>
           <cell r="U2">
-            <v>3.15</v>
+            <v>8.75</v>
           </cell>
           <cell r="V2">
-            <v>3.15</v>
+            <v>6.17</v>
           </cell>
           <cell r="W2">
-            <v>5.33</v>
+            <v>6.6</v>
           </cell>
           <cell r="X2">
-            <v>7.42</v>
+            <v>5.72</v>
           </cell>
           <cell r="Y2">
-            <v>7.91</v>
+            <v>10.26</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>14.29</v>
+            <v>11.27</v>
           </cell>
           <cell r="C3">
-            <v>12.98</v>
+            <v>12.24</v>
           </cell>
           <cell r="D3">
-            <v>9.14</v>
+            <v>8.3699999999999992</v>
           </cell>
           <cell r="E3">
-            <v>11.13</v>
+            <v>8.5399999999999991</v>
           </cell>
           <cell r="F3">
-            <v>11.8</v>
+            <v>8.84</v>
           </cell>
           <cell r="G3">
-            <v>12.32</v>
+            <v>8.93</v>
           </cell>
           <cell r="H3">
-            <v>17</v>
+            <v>17.93</v>
           </cell>
           <cell r="I3">
-            <v>20.84</v>
+            <v>15.6</v>
           </cell>
           <cell r="J3">
-            <v>9.7200000000000006</v>
+            <v>9.8800000000000008</v>
           </cell>
           <cell r="K3">
-            <v>10.98</v>
+            <v>9.6300000000000008</v>
           </cell>
           <cell r="L3">
-            <v>6.47</v>
+            <v>7.71</v>
           </cell>
           <cell r="M3">
-            <v>6.19</v>
+            <v>7.97</v>
           </cell>
           <cell r="N3">
-            <v>9.0399999999999991</v>
+            <v>9.08</v>
           </cell>
           <cell r="O3">
-            <v>9.0399999999999991</v>
+            <v>7.13</v>
           </cell>
           <cell r="P3">
-            <v>7.61</v>
+            <v>7.4</v>
           </cell>
           <cell r="Q3">
-            <v>7.61</v>
+            <v>7.84</v>
           </cell>
           <cell r="R3">
-            <v>9.51</v>
+            <v>7.6</v>
           </cell>
           <cell r="S3">
-            <v>9.0399999999999991</v>
+            <v>5.7</v>
           </cell>
           <cell r="T3">
-            <v>3.15</v>
+            <v>4.8499999999999996</v>
           </cell>
           <cell r="U3">
-            <v>2.86</v>
+            <v>4.2300000000000004</v>
           </cell>
           <cell r="V3">
-            <v>5.19</v>
+            <v>2.38</v>
           </cell>
           <cell r="W3">
-            <v>7.61</v>
+            <v>2.8</v>
           </cell>
           <cell r="X3">
-            <v>11.32</v>
+            <v>2.09</v>
           </cell>
           <cell r="Y3">
-            <v>11.9</v>
+            <v>12.33</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>15.11</v>
+            <v>6.52</v>
           </cell>
           <cell r="C4">
-            <v>23.24</v>
+            <v>10.56</v>
           </cell>
           <cell r="D4">
-            <v>10.71</v>
+            <v>5.92</v>
           </cell>
           <cell r="E4">
-            <v>12.94</v>
+            <v>6.15</v>
           </cell>
           <cell r="F4">
-            <v>13.33</v>
+            <v>6.79</v>
           </cell>
           <cell r="G4">
-            <v>13.01</v>
+            <v>6.65</v>
           </cell>
           <cell r="H4">
-            <v>15.51</v>
+            <v>10</v>
           </cell>
           <cell r="I4">
-            <v>10.6</v>
+            <v>10.19</v>
           </cell>
           <cell r="J4">
+            <v>9.76</v>
+          </cell>
+          <cell r="K4">
+            <v>8.0500000000000007</v>
+          </cell>
+          <cell r="L4">
+            <v>8.66</v>
+          </cell>
+          <cell r="M4">
             <v>10</v>
           </cell>
-          <cell r="K4">
-            <v>11.5</v>
-          </cell>
-          <cell r="L4">
-            <v>7.5</v>
-          </cell>
-          <cell r="M4">
-            <v>7</v>
-          </cell>
           <cell r="N4">
-            <v>7</v>
+            <v>7.8</v>
           </cell>
           <cell r="O4">
-            <v>9.5</v>
+            <v>5.82</v>
           </cell>
           <cell r="P4">
-            <v>7</v>
+            <v>6.56</v>
           </cell>
           <cell r="Q4">
-            <v>7</v>
+            <v>8.0399999999999991</v>
           </cell>
           <cell r="R4">
-            <v>7</v>
+            <v>7.63</v>
           </cell>
           <cell r="S4">
-            <v>10</v>
+            <v>8.42</v>
           </cell>
           <cell r="T4">
-            <v>8</v>
+            <v>4.66</v>
           </cell>
           <cell r="U4">
-            <v>7</v>
+            <v>4.32</v>
           </cell>
           <cell r="V4">
-            <v>9.5</v>
+            <v>2.81</v>
           </cell>
           <cell r="W4">
-            <v>10</v>
+            <v>2.81</v>
           </cell>
           <cell r="X4">
-            <v>9.5</v>
+            <v>3.33</v>
           </cell>
           <cell r="Y4">
-            <v>10</v>
+            <v>8.9700000000000006</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>3.67</v>
+            <v>5.88</v>
           </cell>
           <cell r="C5">
-            <v>5.29</v>
+            <v>8.98</v>
           </cell>
           <cell r="D5">
-            <v>6.83</v>
+            <v>7.64</v>
           </cell>
           <cell r="E5">
-            <v>10.88</v>
+            <v>7.72</v>
           </cell>
           <cell r="F5">
-            <v>9.5</v>
+            <v>7.64</v>
           </cell>
           <cell r="G5">
-            <v>9.8699999999999992</v>
+            <v>7.72</v>
           </cell>
           <cell r="H5">
-            <v>10.77</v>
+            <v>8.23</v>
           </cell>
           <cell r="I5">
-            <v>9.84</v>
+            <v>7.19</v>
           </cell>
           <cell r="J5">
-            <v>10.06</v>
+            <v>6.72</v>
           </cell>
           <cell r="K5">
-            <v>9.27</v>
+            <v>6.56</v>
           </cell>
           <cell r="L5">
-            <v>8.57</v>
+            <v>5.75</v>
           </cell>
           <cell r="M5">
-            <v>8.7799999999999994</v>
+            <v>4.9400000000000004</v>
           </cell>
           <cell r="N5">
-            <v>8.8000000000000007</v>
+            <v>4.6100000000000003</v>
           </cell>
           <cell r="O5">
-            <v>9.0299999999999994</v>
+            <v>4.6100000000000003</v>
           </cell>
           <cell r="P5">
-            <v>10.11</v>
+            <v>6.11</v>
           </cell>
           <cell r="Q5">
-            <v>10.99</v>
+            <v>4.6100000000000003</v>
           </cell>
           <cell r="R5">
-            <v>9.82</v>
+            <v>4.6100000000000003</v>
           </cell>
           <cell r="S5">
-            <v>7.98</v>
+            <v>4.66</v>
           </cell>
           <cell r="T5">
-            <v>5.51</v>
+            <v>5.58</v>
           </cell>
           <cell r="U5">
-            <v>0.73</v>
+            <v>5.56</v>
           </cell>
           <cell r="V5">
-            <v>0.63</v>
+            <v>5.09</v>
           </cell>
           <cell r="W5">
-            <v>0.76</v>
+            <v>4.33</v>
           </cell>
           <cell r="X5">
-            <v>1.84</v>
+            <v>4.62</v>
           </cell>
           <cell r="Y5">
-            <v>7.95</v>
+            <v>6.95</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>9.83</v>
+            <v>7.58</v>
           </cell>
           <cell r="C6">
-            <v>11.06</v>
+            <v>9.4499999999999993</v>
           </cell>
           <cell r="D6">
-            <v>8.64</v>
+            <v>6.33</v>
           </cell>
           <cell r="E6">
-            <v>9.42</v>
+            <v>6.8</v>
           </cell>
           <cell r="F6">
-            <v>10.65</v>
+            <v>6.8</v>
           </cell>
           <cell r="G6">
-            <v>10.53</v>
+            <v>6.25</v>
           </cell>
           <cell r="H6">
-            <v>15.26</v>
+            <v>7.77</v>
           </cell>
           <cell r="I6">
-            <v>13.61</v>
+            <v>9.4499999999999993</v>
           </cell>
           <cell r="J6">
-            <v>9.01</v>
+            <v>9.2200000000000006</v>
           </cell>
           <cell r="K6">
-            <v>9.8800000000000008</v>
+            <v>8.6199999999999992</v>
           </cell>
           <cell r="L6">
-            <v>10.01</v>
+            <v>7.09</v>
           </cell>
           <cell r="M6">
-            <v>9.74</v>
+            <v>6.43</v>
           </cell>
           <cell r="N6">
-            <v>7.51</v>
+            <v>5.85</v>
           </cell>
           <cell r="O6">
-            <v>9.6</v>
+            <v>6.44</v>
           </cell>
           <cell r="P6">
-            <v>7.51</v>
+            <v>6.79</v>
           </cell>
           <cell r="Q6">
-            <v>8.44</v>
+            <v>8.14</v>
           </cell>
           <cell r="R6">
-            <v>7.59</v>
+            <v>8.51</v>
           </cell>
           <cell r="S6">
-            <v>7.73</v>
+            <v>9.17</v>
           </cell>
           <cell r="T6">
-            <v>9.6300000000000008</v>
+            <v>8.7899999999999991</v>
           </cell>
           <cell r="U6">
-            <v>6.01</v>
+            <v>7.6</v>
           </cell>
           <cell r="V6">
-            <v>5.26</v>
+            <v>6.29</v>
           </cell>
           <cell r="W6">
-            <v>6.73</v>
+            <v>6.62</v>
           </cell>
           <cell r="X6">
-            <v>10.01</v>
+            <v>6.53</v>
           </cell>
           <cell r="Y6">
-            <v>10.48</v>
+            <v>7.99</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2">
-            <v>65.322500000000005</v>
+            <v>37</v>
           </cell>
           <cell r="C2">
-            <v>55.69</v>
+            <v>35.69</v>
           </cell>
           <cell r="D2">
-            <v>55.69</v>
+            <v>35.69</v>
           </cell>
           <cell r="E2">
-            <v>41.69</v>
+            <v>35.69</v>
           </cell>
           <cell r="F2">
-            <v>49.042499999999997</v>
+            <v>35.69</v>
           </cell>
           <cell r="G2">
-            <v>48.4</v>
+            <v>35.69</v>
           </cell>
           <cell r="H2">
-            <v>55.69</v>
+            <v>47.22</v>
           </cell>
           <cell r="I2">
-            <v>99</v>
+            <v>47.22</v>
           </cell>
           <cell r="J2">
-            <v>99</v>
+            <v>47.22</v>
           </cell>
           <cell r="K2">
-            <v>99</v>
+            <v>47.22</v>
           </cell>
           <cell r="L2">
-            <v>48.4</v>
+            <v>36</v>
           </cell>
           <cell r="M2">
-            <v>99</v>
+            <v>38.4</v>
           </cell>
           <cell r="N2">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="O2">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="P2">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q2">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="R2">
-            <v>99</v>
+            <v>47.22</v>
           </cell>
           <cell r="S2">
-            <v>70.03</v>
+            <v>47.22</v>
           </cell>
           <cell r="T2">
-            <v>99</v>
+            <v>47.22</v>
           </cell>
           <cell r="U2">
-            <v>99</v>
+            <v>47.22</v>
           </cell>
           <cell r="V2">
-            <v>51</v>
+            <v>47.12</v>
           </cell>
           <cell r="W2">
-            <v>75.75</v>
+            <v>47.22</v>
           </cell>
           <cell r="X2">
-            <v>61.945</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y2">
-            <v>51</v>
+            <v>47.087499999999999</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="C3">
-            <v>46.48</v>
+            <v>47.22</v>
           </cell>
           <cell r="D3">
-            <v>54.54</v>
+            <v>47.22</v>
           </cell>
           <cell r="E3">
-            <v>54.54</v>
+            <v>36</v>
           </cell>
           <cell r="F3">
-            <v>54.54</v>
+            <v>35.69</v>
           </cell>
           <cell r="G3">
-            <v>54.54</v>
+            <v>35.69</v>
           </cell>
           <cell r="H3">
-            <v>54.54</v>
+            <v>35.69</v>
           </cell>
           <cell r="I3">
-            <v>70.03</v>
+            <v>47.22</v>
           </cell>
           <cell r="J3">
-            <v>54.54</v>
+            <v>47.22</v>
           </cell>
           <cell r="K3">
-            <v>55</v>
+            <v>47.22</v>
           </cell>
           <cell r="L3">
-            <v>55.68</v>
+            <v>47.22</v>
           </cell>
           <cell r="M3">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="N3">
-            <v>54.54</v>
+            <v>47.22</v>
           </cell>
           <cell r="O3">
-            <v>54.54</v>
+            <v>47.22</v>
           </cell>
           <cell r="P3">
-            <v>54.54</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q3">
-            <v>54.54</v>
+            <v>47.22</v>
           </cell>
           <cell r="R3">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="S3">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="T3">
-            <v>98</v>
+            <v>47.22</v>
           </cell>
           <cell r="U3">
-            <v>97</v>
+            <v>47.22</v>
           </cell>
           <cell r="V3">
-            <v>59</v>
+            <v>47.22</v>
           </cell>
           <cell r="W3">
-            <v>66</v>
+            <v>47.22</v>
           </cell>
           <cell r="X3">
-            <v>71</v>
+            <v>36</v>
           </cell>
           <cell r="Y3">
-            <v>97</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>65.2</v>
+            <v>36.4</v>
           </cell>
           <cell r="C4">
-            <v>65.2</v>
+            <v>36.4</v>
           </cell>
           <cell r="D4">
-            <v>54.54</v>
+            <v>35.69</v>
           </cell>
           <cell r="E4">
-            <v>41.69</v>
+            <v>35.69</v>
           </cell>
           <cell r="F4">
-            <v>54.54</v>
+            <v>35.69</v>
           </cell>
           <cell r="G4">
-            <v>54.54</v>
+            <v>35.69</v>
           </cell>
           <cell r="H4">
-            <v>54.54</v>
+            <v>35.69</v>
           </cell>
           <cell r="I4">
-            <v>54.54</v>
+            <v>47.22</v>
           </cell>
           <cell r="J4">
-            <v>54.54</v>
+            <v>36.4</v>
           </cell>
           <cell r="K4">
-            <v>51</v>
+            <v>36.4</v>
           </cell>
           <cell r="L4">
-            <v>51</v>
+            <v>47.22</v>
           </cell>
           <cell r="M4">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="N4">
-            <v>65.2</v>
+            <v>42</v>
           </cell>
           <cell r="O4">
-            <v>65.2</v>
+            <v>38</v>
           </cell>
           <cell r="P4">
-            <v>65.2</v>
+            <v>38</v>
           </cell>
           <cell r="Q4">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="R4">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="S4">
-            <v>46</v>
+            <v>47.22</v>
           </cell>
           <cell r="T4">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="U4">
-            <v>98</v>
+            <v>47.22</v>
           </cell>
           <cell r="V4">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="W4">
-            <v>66</v>
+            <v>47.22</v>
           </cell>
           <cell r="X4">
-            <v>65.69</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y4">
-            <v>46</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="C5">
-            <v>65.2</v>
+            <v>37.4</v>
           </cell>
           <cell r="D5">
-            <v>65.2</v>
+            <v>69.040000000000006</v>
           </cell>
           <cell r="E5">
-            <v>65.2</v>
+            <v>37.4</v>
           </cell>
           <cell r="F5">
-            <v>45.4</v>
+            <v>35.69</v>
           </cell>
           <cell r="G5">
-            <v>41.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="H5">
-            <v>41.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="I5">
-            <v>41.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="J5">
-            <v>65.2</v>
+            <v>37.4</v>
           </cell>
           <cell r="K5">
-            <v>65.2</v>
+            <v>38</v>
           </cell>
           <cell r="L5">
-            <v>65.2</v>
+            <v>38</v>
           </cell>
           <cell r="M5">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="N5">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="O5">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="P5">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q5">
-            <v>65.2</v>
+            <v>47.22</v>
           </cell>
           <cell r="R5">
-            <v>65.69</v>
+            <v>47.22</v>
           </cell>
           <cell r="S5">
-            <v>65.69</v>
+            <v>47.22</v>
           </cell>
           <cell r="T5">
-            <v>65.69</v>
+            <v>47.22</v>
           </cell>
           <cell r="U5">
-            <v>65.69</v>
+            <v>47.22</v>
           </cell>
           <cell r="V5">
-            <v>45.4</v>
+            <v>47.22</v>
           </cell>
           <cell r="W5">
-            <v>45.4</v>
+            <v>95</v>
           </cell>
           <cell r="X5">
-            <v>45.4</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y5">
-            <v>64.922499999999999</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>65.69</v>
+            <v>46.66</v>
           </cell>
           <cell r="C6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="D6">
-            <v>41.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="E6">
-            <v>41.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="F6">
-            <v>41.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="G6">
-            <v>41.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="H6">
-            <v>41.69</v>
+            <v>39</v>
           </cell>
           <cell r="I6">
-            <v>65.69</v>
+            <v>64.64</v>
           </cell>
           <cell r="J6">
-            <v>65.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="K6">
-            <v>57.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="L6">
-            <v>57.69</v>
+            <v>42.11</v>
           </cell>
           <cell r="M6">
-            <v>57.69</v>
+            <v>37.4</v>
           </cell>
           <cell r="N6">
-            <v>57.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="O6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="P6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="Q6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="R6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="S6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="T6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="U6">
-            <v>51.4</v>
+            <v>46.69</v>
           </cell>
           <cell r="V6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
           <cell r="W6">
-            <v>65.69</v>
+            <v>46.58</v>
           </cell>
           <cell r="X6">
-            <v>65.69</v>
+            <v>46.56</v>
           </cell>
           <cell r="Y6">
-            <v>65.69</v>
+            <v>46.69</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>32.01</v>
+            <v>15.6</v>
           </cell>
           <cell r="C2">
-            <v>35.646666666666668</v>
+            <v>43.2</v>
           </cell>
           <cell r="D2">
-            <v>16.190000000000001</v>
+            <v>33.605000000000004</v>
           </cell>
           <cell r="E2">
-            <v>32.356666666666662</v>
+            <v>35.513333333333328</v>
           </cell>
           <cell r="F2">
-            <v>16.190000000000001</v>
+            <v>39.4</v>
           </cell>
           <cell r="G2">
-            <v>16.190000000000001</v>
+            <v>30.71</v>
           </cell>
           <cell r="H2">
-            <v>32.356666666666662</v>
+            <v>24.515000000000001</v>
           </cell>
           <cell r="I2">
-            <v>30.75</v>
+            <v>27.98</v>
           </cell>
           <cell r="J2">
-            <v>39.46</v>
+            <v>27.98</v>
           </cell>
           <cell r="K2">
-            <v>35.375</v>
+            <v>23.7575</v>
           </cell>
           <cell r="L2">
-            <v>42.695</v>
+            <v>26</v>
           </cell>
           <cell r="M2">
-            <v>36.936666666666667</v>
+            <v>41.627499999999998</v>
           </cell>
           <cell r="N2">
-            <v>34.646666666666668</v>
+            <v>52.5</v>
           </cell>
           <cell r="O2">
-            <v>30.75</v>
+            <v>50.4</v>
           </cell>
           <cell r="P2">
-            <v>33.19</v>
+            <v>50.4</v>
           </cell>
           <cell r="Q2">
-            <v>30.75</v>
+            <v>50.4</v>
           </cell>
           <cell r="R2">
-            <v>35.375</v>
+            <v>50.4</v>
           </cell>
           <cell r="S2">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="T2">
-            <v>40.06</v>
+            <v>27.98</v>
           </cell>
           <cell r="U2">
-            <v>50.5</v>
+            <v>50.4</v>
           </cell>
           <cell r="V2">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="W2">
-            <v>44.44</v>
+            <v>27.98</v>
           </cell>
           <cell r="X2">
-            <v>42.42</v>
+            <v>22.02</v>
           </cell>
           <cell r="Y2">
-            <v>31.52333333333333</v>
+            <v>50.4</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>31.963333333333335</v>
+            <v>50.4</v>
           </cell>
           <cell r="C3">
-            <v>36.19</v>
+            <v>26</v>
           </cell>
           <cell r="D3">
-            <v>33.19</v>
+            <v>26</v>
           </cell>
           <cell r="E3">
-            <v>33.19</v>
+            <v>27.74</v>
           </cell>
           <cell r="F3">
-            <v>30.03</v>
+            <v>33.606666666666662</v>
           </cell>
           <cell r="G3">
-            <v>30.03</v>
+            <v>30.71</v>
           </cell>
           <cell r="H3">
-            <v>33.19</v>
+            <v>24.515000000000001</v>
           </cell>
           <cell r="I3">
-            <v>44.9</v>
+            <v>22.02</v>
           </cell>
           <cell r="J3">
+            <v>24.7575</v>
+          </cell>
+          <cell r="K3">
+            <v>27.98</v>
+          </cell>
+          <cell r="L3">
             <v>52.5</v>
           </cell>
-          <cell r="K3">
-            <v>35.375</v>
-          </cell>
-          <cell r="L3">
-            <v>42.695</v>
-          </cell>
           <cell r="M3">
-            <v>40.06</v>
+            <v>52.5</v>
           </cell>
           <cell r="N3">
-            <v>40.06</v>
+            <v>52.5</v>
           </cell>
           <cell r="O3">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="P3">
-            <v>33.19</v>
+            <v>50.4</v>
           </cell>
           <cell r="Q3">
-            <v>33.19</v>
+            <v>50.4</v>
           </cell>
           <cell r="R3">
-            <v>35.375</v>
+            <v>50.4</v>
           </cell>
           <cell r="S3">
-            <v>40.06</v>
+            <v>29.98</v>
           </cell>
           <cell r="T3">
-            <v>40.06</v>
+            <v>27.98</v>
           </cell>
           <cell r="U3">
-            <v>43.54</v>
+            <v>27.98</v>
           </cell>
           <cell r="V3">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="W3">
-            <v>40.06</v>
+            <v>28</v>
           </cell>
           <cell r="X3">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="Y3">
-            <v>33.19</v>
+            <v>50.4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>33.19</v>
+            <v>27.98</v>
           </cell>
           <cell r="C4">
-            <v>35.646666666666668</v>
+            <v>22.02</v>
           </cell>
           <cell r="D4">
-            <v>33.19</v>
+            <v>22.02</v>
           </cell>
           <cell r="E4">
-            <v>32.356666666666662</v>
+            <v>39.4</v>
           </cell>
           <cell r="F4">
-            <v>31.67</v>
+            <v>22.02</v>
           </cell>
           <cell r="G4">
-            <v>25.636666666666667</v>
+            <v>22.02</v>
           </cell>
           <cell r="H4">
-            <v>33.19</v>
+            <v>24.515000000000001</v>
           </cell>
           <cell r="I4">
-            <v>35.19</v>
+            <v>23.267499999999998</v>
           </cell>
           <cell r="J4">
-            <v>35.19</v>
+            <v>27.98</v>
           </cell>
           <cell r="K4">
-            <v>40.06</v>
+            <v>20.36</v>
           </cell>
           <cell r="L4">
-            <v>54.7</v>
+            <v>52.5</v>
           </cell>
           <cell r="M4">
-            <v>40.06</v>
+            <v>60</v>
           </cell>
           <cell r="N4">
-            <v>33.19</v>
+            <v>29.01</v>
           </cell>
           <cell r="O4">
-            <v>33.19</v>
+            <v>29.02</v>
           </cell>
           <cell r="P4">
-            <v>33.19</v>
+            <v>29.02</v>
           </cell>
           <cell r="Q4">
-            <v>31.543333333333333</v>
+            <v>50.4</v>
           </cell>
           <cell r="R4">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="S4">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="T4">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="U4">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="V4">
-            <v>40.06</v>
+            <v>30</v>
           </cell>
           <cell r="W4">
-            <v>41.52</v>
+            <v>50.4</v>
           </cell>
           <cell r="X4">
-            <v>40.69</v>
+            <v>27.98</v>
           </cell>
           <cell r="Y4">
-            <v>31.52333333333333</v>
+            <v>22.02</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0</v>
+            <v>50.4</v>
           </cell>
           <cell r="C5">
-            <v>40.06</v>
+            <v>43.2</v>
           </cell>
           <cell r="D5">
-            <v>40.06</v>
+            <v>43.2</v>
           </cell>
           <cell r="E5">
-            <v>33.19</v>
+            <v>39.4</v>
           </cell>
           <cell r="F5">
-            <v>27.145</v>
+            <v>39.4</v>
           </cell>
           <cell r="G5">
-            <v>25.636666666666667</v>
+            <v>39.4</v>
           </cell>
           <cell r="H5">
-            <v>32.356666666666662</v>
+            <v>27.98</v>
           </cell>
           <cell r="I5">
-            <v>35.3825</v>
+            <v>22.02</v>
           </cell>
           <cell r="J5">
-            <v>39.46</v>
+            <v>22.02</v>
           </cell>
           <cell r="K5">
-            <v>35.375</v>
+            <v>27.98</v>
           </cell>
           <cell r="L5">
-            <v>42.695</v>
+            <v>52.5</v>
           </cell>
           <cell r="M5">
-            <v>36.936666666666667</v>
+            <v>27.98</v>
           </cell>
           <cell r="N5">
-            <v>34.646666666666668</v>
+            <v>52.5</v>
           </cell>
           <cell r="O5">
-            <v>33.19</v>
+            <v>50.4</v>
           </cell>
           <cell r="P5">
-            <v>33.19</v>
+            <v>50.4</v>
           </cell>
           <cell r="Q5">
-            <v>30.69</v>
+            <v>27.98</v>
           </cell>
           <cell r="R5">
-            <v>30.69</v>
+            <v>50.4</v>
           </cell>
           <cell r="S5">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="T5">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="U5">
-            <v>43.54</v>
+            <v>50.4</v>
           </cell>
           <cell r="V5">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="W5">
-            <v>41.52</v>
+            <v>50.4</v>
           </cell>
           <cell r="X5">
-            <v>38.465000000000003</v>
+            <v>50.4</v>
           </cell>
           <cell r="Y5">
-            <v>30.69</v>
+            <v>50.4</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>30.69</v>
+            <v>50.4</v>
           </cell>
           <cell r="C6">
-            <v>30.69</v>
+            <v>18.71</v>
           </cell>
           <cell r="D6">
-            <v>30.69</v>
+            <v>43.2</v>
           </cell>
           <cell r="E6">
-            <v>30.69</v>
+            <v>35.513333333333328</v>
           </cell>
           <cell r="F6">
-            <v>30.69</v>
+            <v>33.606666666666662</v>
           </cell>
           <cell r="G6">
-            <v>30.69</v>
+            <v>30.71</v>
           </cell>
           <cell r="H6">
-            <v>30.69</v>
+            <v>21.05</v>
           </cell>
           <cell r="I6">
-            <v>30.69</v>
+            <v>21.05</v>
           </cell>
           <cell r="J6">
-            <v>30.69</v>
+            <v>21.05</v>
           </cell>
           <cell r="K6">
-            <v>30.69</v>
+            <v>18.71</v>
           </cell>
           <cell r="L6">
-            <v>30.69</v>
+            <v>18.71</v>
           </cell>
           <cell r="M6">
-            <v>30.69</v>
+            <v>26.03</v>
           </cell>
           <cell r="N6">
-            <v>30.69</v>
+            <v>52.5</v>
           </cell>
           <cell r="O6">
-            <v>30.69</v>
+            <v>45.055</v>
           </cell>
           <cell r="P6">
-            <v>33.19</v>
+            <v>50.4</v>
           </cell>
           <cell r="Q6">
-            <v>31.543333333333333</v>
+            <v>44.794999999999995</v>
           </cell>
           <cell r="R6">
-            <v>35.375</v>
+            <v>50.4</v>
           </cell>
           <cell r="S6">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="T6">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="U6">
-            <v>40.06</v>
+            <v>26.03</v>
           </cell>
           <cell r="V6">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="W6">
-            <v>40.06</v>
+            <v>50.4</v>
           </cell>
           <cell r="X6">
-            <v>30.69</v>
+            <v>26.03</v>
           </cell>
           <cell r="Y6">
-            <v>30.69</v>
+            <v>50.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>50.67</v>
+          </cell>
+          <cell r="C2">
+            <v>49.19</v>
+          </cell>
+          <cell r="D2">
+            <v>46.22</v>
+          </cell>
+          <cell r="E2">
+            <v>42</v>
+          </cell>
+          <cell r="F2">
+            <v>39.01</v>
+          </cell>
+          <cell r="G2">
+            <v>42</v>
+          </cell>
+          <cell r="H2">
+            <v>47.75</v>
+          </cell>
+          <cell r="I2">
+            <v>50.69</v>
+          </cell>
+          <cell r="J2">
+            <v>52.93</v>
+          </cell>
+          <cell r="K2">
+            <v>52.6</v>
+          </cell>
+          <cell r="L2">
+            <v>50.67</v>
+          </cell>
+          <cell r="M2">
+            <v>49.73</v>
+          </cell>
+          <cell r="N2">
+            <v>47.44</v>
+          </cell>
+          <cell r="O2">
+            <v>47.01</v>
+          </cell>
+          <cell r="P2">
+            <v>45</v>
+          </cell>
+          <cell r="Q2">
+            <v>42.97</v>
+          </cell>
+          <cell r="R2">
+            <v>43.68</v>
+          </cell>
+          <cell r="S2">
+            <v>46.81</v>
+          </cell>
+          <cell r="T2">
+            <v>49.51</v>
+          </cell>
+          <cell r="U2">
+            <v>50</v>
+          </cell>
+          <cell r="V2">
+            <v>50</v>
+          </cell>
+          <cell r="W2">
+            <v>47.11</v>
+          </cell>
+          <cell r="X2">
+            <v>38.6</v>
+          </cell>
+          <cell r="Y2">
+            <v>34.1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>31.86</v>
+          </cell>
+          <cell r="C3">
+            <v>30.53</v>
+          </cell>
+          <cell r="D3">
+            <v>29.57</v>
+          </cell>
+          <cell r="E3">
+            <v>29.53</v>
+          </cell>
+          <cell r="F3">
+            <v>29.77</v>
+          </cell>
+          <cell r="G3">
+            <v>30.47</v>
+          </cell>
+          <cell r="H3">
+            <v>31.37</v>
+          </cell>
+          <cell r="I3">
+            <v>40.01</v>
+          </cell>
+          <cell r="J3">
+            <v>45.19</v>
+          </cell>
+          <cell r="K3">
+            <v>46.47</v>
+          </cell>
+          <cell r="L3">
+            <v>46.29</v>
+          </cell>
+          <cell r="M3">
+            <v>44.49</v>
+          </cell>
+          <cell r="N3">
+            <v>43.01</v>
+          </cell>
+          <cell r="O3">
+            <v>41.25</v>
+          </cell>
+          <cell r="P3">
+            <v>37.97</v>
+          </cell>
+          <cell r="Q3">
+            <v>36.01</v>
+          </cell>
+          <cell r="R3">
+            <v>38.01</v>
+          </cell>
+          <cell r="S3">
+            <v>41.51</v>
+          </cell>
+          <cell r="T3">
+            <v>45.25</v>
+          </cell>
+          <cell r="U3">
+            <v>46.55</v>
+          </cell>
+          <cell r="V3">
+            <v>46.75</v>
+          </cell>
+          <cell r="W3">
+            <v>45.09</v>
+          </cell>
+          <cell r="X3">
+            <v>40.15</v>
+          </cell>
+          <cell r="Y3">
+            <v>31.17</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>30.67</v>
+          </cell>
+          <cell r="C4">
+            <v>29</v>
+          </cell>
+          <cell r="D4">
+            <v>20.010000000000002</v>
+          </cell>
+          <cell r="E4">
+            <v>17.5</v>
+          </cell>
+          <cell r="F4">
+            <v>16.670000000000002</v>
+          </cell>
+          <cell r="G4">
+            <v>25</v>
+          </cell>
+          <cell r="H4">
+            <v>30.53</v>
+          </cell>
+          <cell r="I4">
+            <v>38.53</v>
+          </cell>
+          <cell r="J4">
+            <v>42.99</v>
+          </cell>
+          <cell r="K4">
+            <v>43.52</v>
+          </cell>
+          <cell r="L4">
+            <v>44.5</v>
+          </cell>
+          <cell r="M4">
+            <v>44.02</v>
+          </cell>
+          <cell r="N4">
+            <v>43.85</v>
+          </cell>
+          <cell r="O4">
+            <v>43.01</v>
+          </cell>
+          <cell r="P4">
+            <v>40.21</v>
+          </cell>
+          <cell r="Q4">
+            <v>41.25</v>
+          </cell>
+          <cell r="R4">
+            <v>42.5</v>
+          </cell>
+          <cell r="S4">
+            <v>45</v>
+          </cell>
+          <cell r="T4">
+            <v>48.43</v>
+          </cell>
+          <cell r="U4">
+            <v>52.8</v>
+          </cell>
+          <cell r="V4">
+            <v>52.49</v>
+          </cell>
+          <cell r="W4">
+            <v>48.1</v>
+          </cell>
+          <cell r="X4">
+            <v>43.75</v>
+          </cell>
+          <cell r="Y4">
+            <v>38.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>33.270000000000003</v>
+          </cell>
+          <cell r="C5">
+            <v>31.18</v>
+          </cell>
+          <cell r="D5">
+            <v>30.8</v>
+          </cell>
+          <cell r="E5">
+            <v>29.9</v>
+          </cell>
+          <cell r="F5">
+            <v>29.72</v>
+          </cell>
+          <cell r="G5">
+            <v>31.1</v>
+          </cell>
+          <cell r="H5">
+            <v>38.700000000000003</v>
+          </cell>
+          <cell r="I5">
+            <v>42.1</v>
+          </cell>
+          <cell r="J5">
+            <v>42.89</v>
+          </cell>
+          <cell r="K5">
+            <v>44.1</v>
+          </cell>
+          <cell r="L5">
+            <v>43.51</v>
+          </cell>
+          <cell r="M5">
+            <v>42.1</v>
+          </cell>
+          <cell r="N5">
+            <v>40.36</v>
+          </cell>
+          <cell r="O5">
+            <v>40.08</v>
+          </cell>
+          <cell r="P5">
+            <v>36.81</v>
+          </cell>
+          <cell r="Q5">
+            <v>32.49</v>
+          </cell>
+          <cell r="R5">
+            <v>32.869999999999997</v>
+          </cell>
+          <cell r="S5">
+            <v>40.840000000000003</v>
+          </cell>
+          <cell r="T5">
+            <v>43.15</v>
+          </cell>
+          <cell r="U5">
+            <v>43.2</v>
+          </cell>
+          <cell r="V5">
+            <v>43.98</v>
+          </cell>
+          <cell r="W5">
+            <v>43.15</v>
+          </cell>
+          <cell r="X5">
+            <v>40.01</v>
+          </cell>
+          <cell r="Y5">
+            <v>32.68</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>30.87</v>
+          </cell>
+          <cell r="C6">
+            <v>29.48</v>
+          </cell>
+          <cell r="D6">
+            <v>26.86</v>
+          </cell>
+          <cell r="E6">
+            <v>25.71</v>
+          </cell>
+          <cell r="F6">
+            <v>26.01</v>
+          </cell>
+          <cell r="G6">
+            <v>27.97</v>
+          </cell>
+          <cell r="H6">
+            <v>31.09</v>
+          </cell>
+          <cell r="I6">
+            <v>40.25</v>
+          </cell>
+          <cell r="J6">
+            <v>43.8</v>
+          </cell>
+          <cell r="K6">
+            <v>43.19</v>
+          </cell>
+          <cell r="L6">
+            <v>43.68</v>
+          </cell>
+          <cell r="M6">
+            <v>42.72</v>
+          </cell>
+          <cell r="N6">
+            <v>41.37</v>
+          </cell>
+          <cell r="O6">
+            <v>39.979999999999997</v>
+          </cell>
+          <cell r="P6">
+            <v>39.020000000000003</v>
+          </cell>
+          <cell r="Q6">
+            <v>39.11</v>
+          </cell>
+          <cell r="R6">
+            <v>41.37</v>
+          </cell>
+          <cell r="S6">
+            <v>43.98</v>
+          </cell>
+          <cell r="T6">
+            <v>47.11</v>
+          </cell>
+          <cell r="U6">
+            <v>49.73</v>
+          </cell>
+          <cell r="V6">
+            <v>51.75</v>
+          </cell>
+          <cell r="W6">
+            <v>50.3</v>
+          </cell>
+          <cell r="X6">
+            <v>46.16</v>
+          </cell>
+          <cell r="Y6">
+            <v>44.01</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>2.99</v>
+          </cell>
+          <cell r="C2">
+            <v>2.99</v>
+          </cell>
+          <cell r="D2">
+            <v>3.49</v>
+          </cell>
+          <cell r="E2">
+            <v>3.48</v>
+          </cell>
+          <cell r="F2">
+            <v>2.99</v>
+          </cell>
+          <cell r="G2">
+            <v>6.39</v>
+          </cell>
+          <cell r="H2">
+            <v>7.26</v>
+          </cell>
+          <cell r="I2">
+            <v>4.59</v>
+          </cell>
+          <cell r="J2">
+            <v>5.19</v>
+          </cell>
+          <cell r="K2">
+            <v>1.19</v>
+          </cell>
+          <cell r="L2">
+            <v>2.68</v>
+          </cell>
+          <cell r="M2">
+            <v>2.99</v>
+          </cell>
+          <cell r="N2">
+            <v>3.19</v>
+          </cell>
+          <cell r="O2">
+            <v>3.68</v>
+          </cell>
+          <cell r="P2">
+            <v>4</v>
+          </cell>
+          <cell r="Q2">
+            <v>4.01</v>
+          </cell>
+          <cell r="R2">
+            <v>4</v>
+          </cell>
+          <cell r="S2">
+            <v>2.2799999999999998</v>
+          </cell>
+          <cell r="T2">
+            <v>0.99</v>
+          </cell>
+          <cell r="U2">
+            <v>2.29</v>
+          </cell>
+          <cell r="V2">
+            <v>0.99</v>
+          </cell>
+          <cell r="W2">
+            <v>1.99</v>
+          </cell>
+          <cell r="X2">
+            <v>3.99</v>
+          </cell>
+          <cell r="Y2">
+            <v>7.06</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>24.41</v>
+          </cell>
+          <cell r="C3">
+            <v>18.39</v>
+          </cell>
+          <cell r="D3">
+            <v>16.53</v>
+          </cell>
+          <cell r="E3">
+            <v>17.43</v>
+          </cell>
+          <cell r="F3">
+            <v>16.59</v>
+          </cell>
+          <cell r="G3">
+            <v>24.63</v>
+          </cell>
+          <cell r="H3">
+            <v>25.36</v>
+          </cell>
+          <cell r="I3">
+            <v>12.1</v>
+          </cell>
+          <cell r="J3">
+            <v>8.52</v>
+          </cell>
+          <cell r="K3">
+            <v>3.99</v>
+          </cell>
+          <cell r="L3">
+            <v>6.87</v>
+          </cell>
+          <cell r="M3">
+            <v>2.99</v>
+          </cell>
+          <cell r="N3">
+            <v>5.04</v>
+          </cell>
+          <cell r="O3">
+            <v>7.34</v>
+          </cell>
+          <cell r="P3">
+            <v>10.42</v>
+          </cell>
+          <cell r="Q3">
+            <v>11.75</v>
+          </cell>
+          <cell r="R3">
+            <v>10.38</v>
+          </cell>
+          <cell r="S3">
+            <v>4.29</v>
+          </cell>
+          <cell r="T3">
+            <v>6.55</v>
+          </cell>
+          <cell r="U3">
+            <v>5.95</v>
+          </cell>
+          <cell r="V3">
+            <v>3.99</v>
+          </cell>
+          <cell r="W3">
+            <v>1.99</v>
+          </cell>
+          <cell r="X3">
+            <v>6.94</v>
+          </cell>
+          <cell r="Y3">
+            <v>21.7</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>18.309999999999999</v>
+          </cell>
+          <cell r="C4">
+            <v>18.79</v>
+          </cell>
+          <cell r="D4">
+            <v>22.38</v>
+          </cell>
+          <cell r="E4">
+            <v>24.35</v>
+          </cell>
+          <cell r="F4">
+            <v>25.01</v>
+          </cell>
+          <cell r="G4">
+            <v>20.48</v>
+          </cell>
+          <cell r="H4">
+            <v>22.13</v>
+          </cell>
+          <cell r="I4">
+            <v>12.36</v>
+          </cell>
+          <cell r="J4">
+            <v>5.59</v>
+          </cell>
+          <cell r="K4">
+            <v>4.01</v>
+          </cell>
+          <cell r="L4">
+            <v>3.49</v>
+          </cell>
+          <cell r="M4">
+            <v>5.14</v>
+          </cell>
+          <cell r="N4">
+            <v>3.99</v>
+          </cell>
+          <cell r="O4">
+            <v>4.29</v>
+          </cell>
+          <cell r="P4">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="Q4">
+            <v>4.49</v>
+          </cell>
+          <cell r="R4">
+            <v>3.99</v>
+          </cell>
+          <cell r="S4">
+            <v>3.99</v>
+          </cell>
+          <cell r="T4">
+            <v>4.6399999999999997</v>
+          </cell>
+          <cell r="U4">
+            <v>5.39</v>
+          </cell>
+          <cell r="V4">
+            <v>3.99</v>
+          </cell>
+          <cell r="W4">
+            <v>3.99</v>
+          </cell>
+          <cell r="X4">
+            <v>5.99</v>
+          </cell>
+          <cell r="Y4">
+            <v>9.5500000000000007</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>23.32</v>
+          </cell>
+          <cell r="C5">
+            <v>20.5</v>
+          </cell>
+          <cell r="D5">
+            <v>15.12</v>
+          </cell>
+          <cell r="E5">
+            <v>15.83</v>
+          </cell>
+          <cell r="F5">
+            <v>15.97</v>
+          </cell>
+          <cell r="G5">
+            <v>16.63</v>
+          </cell>
+          <cell r="H5">
+            <v>13.89</v>
+          </cell>
+          <cell r="I5">
+            <v>5.68</v>
+          </cell>
+          <cell r="J5">
+            <v>1.98</v>
+          </cell>
+          <cell r="K5">
+            <v>0.99</v>
+          </cell>
+          <cell r="L5">
+            <v>1.99</v>
+          </cell>
+          <cell r="M5">
+            <v>2.59</v>
+          </cell>
+          <cell r="N5">
+            <v>5.19</v>
+          </cell>
+          <cell r="O5">
+            <v>4.72</v>
+          </cell>
+          <cell r="P5">
+            <v>5.29</v>
+          </cell>
+          <cell r="Q5">
+            <v>4.82</v>
+          </cell>
+          <cell r="R5">
+            <v>4.82</v>
+          </cell>
+          <cell r="S5">
+            <v>3.04</v>
+          </cell>
+          <cell r="T5">
+            <v>5.49</v>
+          </cell>
+          <cell r="U5">
+            <v>5.09</v>
+          </cell>
+          <cell r="V5">
+            <v>2.99</v>
+          </cell>
+          <cell r="W5">
+            <v>3.49</v>
+          </cell>
+          <cell r="X5">
+            <v>8.09</v>
+          </cell>
+          <cell r="Y5">
+            <v>14.86</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>17</v>
+          </cell>
+          <cell r="C6">
+            <v>21.75</v>
+          </cell>
+          <cell r="D6">
+            <v>20.29</v>
+          </cell>
+          <cell r="E6">
+            <v>21.33</v>
+          </cell>
+          <cell r="F6">
+            <v>21.05</v>
+          </cell>
+          <cell r="G6">
+            <v>18.600000000000001</v>
+          </cell>
+          <cell r="H6">
+            <v>21.87</v>
+          </cell>
+          <cell r="I6">
+            <v>7.87</v>
+          </cell>
+          <cell r="J6">
+            <v>3.99</v>
+          </cell>
+          <cell r="K6">
+            <v>1.99</v>
+          </cell>
+          <cell r="L6">
+            <v>1.44</v>
+          </cell>
+          <cell r="M6">
+            <v>1.99</v>
+          </cell>
+          <cell r="N6">
+            <v>1.99</v>
+          </cell>
+          <cell r="O6">
+            <v>1.99</v>
+          </cell>
+          <cell r="P6">
+            <v>2.08</v>
+          </cell>
+          <cell r="Q6">
+            <v>1.99</v>
+          </cell>
+          <cell r="R6">
+            <v>1.99</v>
+          </cell>
+          <cell r="S6">
+            <v>1.99</v>
+          </cell>
+          <cell r="T6">
+            <v>2.52</v>
+          </cell>
+          <cell r="U6">
+            <v>2.09</v>
+          </cell>
+          <cell r="V6">
+            <v>1.44</v>
+          </cell>
+          <cell r="W6">
+            <v>1.79</v>
+          </cell>
+          <cell r="X6">
+            <v>2.5099999999999998</v>
+          </cell>
+          <cell r="Y6">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>62.57</v>
+          </cell>
+          <cell r="C2">
+            <v>44</v>
+          </cell>
+          <cell r="D2">
+            <v>44</v>
+          </cell>
+          <cell r="E2">
+            <v>43.4</v>
+          </cell>
+          <cell r="F2">
+            <v>43.97</v>
+          </cell>
+          <cell r="G2">
+            <v>43.97</v>
+          </cell>
+          <cell r="H2">
+            <v>62.57</v>
+          </cell>
+          <cell r="I2">
+            <v>62.57</v>
+          </cell>
+          <cell r="J2">
+            <v>44.4</v>
+          </cell>
+          <cell r="K2">
+            <v>47</v>
+          </cell>
+          <cell r="L2">
+            <v>47</v>
+          </cell>
+          <cell r="M2">
+            <v>47</v>
+          </cell>
+          <cell r="N2">
+            <v>62.57</v>
+          </cell>
+          <cell r="O2">
+            <v>62.57</v>
+          </cell>
+          <cell r="P2">
+            <v>62.57</v>
+          </cell>
+          <cell r="Q2">
+            <v>62.57</v>
+          </cell>
+          <cell r="R2">
+            <v>62.57</v>
+          </cell>
+          <cell r="S2">
+            <v>62.57</v>
+          </cell>
+          <cell r="T2">
+            <v>61.55</v>
+          </cell>
+          <cell r="U2">
+            <v>61.57</v>
+          </cell>
+          <cell r="V2">
+            <v>61.57</v>
+          </cell>
+          <cell r="W2">
+            <v>61.57</v>
+          </cell>
+          <cell r="X2">
+            <v>58.55</v>
+          </cell>
+          <cell r="Y2">
+            <v>46.97</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>44</v>
+          </cell>
+          <cell r="C3">
+            <v>43.97</v>
+          </cell>
+          <cell r="D3">
+            <v>43.97</v>
+          </cell>
+          <cell r="E3">
+            <v>43.97</v>
+          </cell>
+          <cell r="F3">
+            <v>43.97</v>
+          </cell>
+          <cell r="G3">
+            <v>43.97</v>
+          </cell>
+          <cell r="H3">
+            <v>51.65</v>
+          </cell>
+          <cell r="I3">
+            <v>51.65</v>
+          </cell>
+          <cell r="J3">
+            <v>51.65</v>
+          </cell>
+          <cell r="K3">
+            <v>51.65</v>
+          </cell>
+          <cell r="L3">
+            <v>51.65</v>
+          </cell>
+          <cell r="M3">
+            <v>51.65</v>
+          </cell>
+          <cell r="N3">
+            <v>51.65</v>
+          </cell>
+          <cell r="O3">
+            <v>51.65</v>
+          </cell>
+          <cell r="P3">
+            <v>51.65</v>
+          </cell>
+          <cell r="Q3">
+            <v>51.65</v>
+          </cell>
+          <cell r="R3">
+            <v>51.65</v>
+          </cell>
+          <cell r="S3">
+            <v>51.65</v>
+          </cell>
+          <cell r="T3">
+            <v>51.65</v>
+          </cell>
+          <cell r="U3">
+            <v>51.64</v>
+          </cell>
+          <cell r="V3">
+            <v>51.64</v>
+          </cell>
+          <cell r="W3">
+            <v>51.64</v>
+          </cell>
+          <cell r="X3">
+            <v>46</v>
+          </cell>
+          <cell r="Y3">
+            <v>44.4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>44</v>
+          </cell>
+          <cell r="C4">
+            <v>43.97</v>
+          </cell>
+          <cell r="D4">
+            <v>43.97</v>
+          </cell>
+          <cell r="E4">
+            <v>43.97</v>
+          </cell>
+          <cell r="F4">
+            <v>44</v>
+          </cell>
+          <cell r="G4">
+            <v>43.97</v>
+          </cell>
+          <cell r="H4">
+            <v>44</v>
+          </cell>
+          <cell r="I4">
+            <v>51.65</v>
+          </cell>
+          <cell r="J4">
+            <v>44</v>
+          </cell>
+          <cell r="K4">
+            <v>46</v>
+          </cell>
+          <cell r="L4">
+            <v>58.58</v>
+          </cell>
+          <cell r="M4">
+            <v>58.58</v>
+          </cell>
+          <cell r="N4">
+            <v>58.55</v>
+          </cell>
+          <cell r="O4">
+            <v>58.55</v>
+          </cell>
+          <cell r="P4">
+            <v>46</v>
+          </cell>
+          <cell r="Q4">
+            <v>46</v>
+          </cell>
+          <cell r="R4">
+            <v>46</v>
+          </cell>
+          <cell r="S4">
+            <v>51.555</v>
+          </cell>
+          <cell r="T4">
+            <v>51.3</v>
+          </cell>
+          <cell r="U4">
+            <v>53.07</v>
+          </cell>
+          <cell r="V4">
+            <v>53.07</v>
+          </cell>
+          <cell r="W4">
+            <v>53.07</v>
+          </cell>
+          <cell r="X4">
+            <v>54.376666666666665</v>
+          </cell>
+          <cell r="Y4">
+            <v>44.4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>50.19</v>
+          </cell>
+          <cell r="C5">
+            <v>44</v>
+          </cell>
+          <cell r="D5">
+            <v>44</v>
+          </cell>
+          <cell r="E5">
+            <v>44</v>
+          </cell>
+          <cell r="F5">
+            <v>44</v>
+          </cell>
+          <cell r="G5">
+            <v>43.97</v>
+          </cell>
+          <cell r="H5">
+            <v>43.4</v>
+          </cell>
+          <cell r="I5">
+            <v>44</v>
+          </cell>
+          <cell r="J5">
+            <v>44</v>
+          </cell>
+          <cell r="K5">
+            <v>44</v>
+          </cell>
+          <cell r="L5">
+            <v>44</v>
+          </cell>
+          <cell r="N5">
+            <v>46</v>
+          </cell>
+          <cell r="O5">
+            <v>57.589999999999996</v>
+          </cell>
+          <cell r="P5">
+            <v>46</v>
+          </cell>
+          <cell r="Q5">
+            <v>42.4</v>
+          </cell>
+          <cell r="R5">
+            <v>46</v>
+          </cell>
+          <cell r="S5">
+            <v>46</v>
+          </cell>
+          <cell r="T5">
+            <v>46</v>
+          </cell>
+          <cell r="U5">
+            <v>46</v>
+          </cell>
+          <cell r="V5">
+            <v>46</v>
+          </cell>
+          <cell r="W5">
+            <v>46</v>
+          </cell>
+          <cell r="X5">
+            <v>58.58</v>
+          </cell>
+          <cell r="Y5">
+            <v>58.58</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>50.19</v>
+          </cell>
+          <cell r="C6">
+            <v>43.97</v>
+          </cell>
+          <cell r="D6">
+            <v>43.97</v>
+          </cell>
+          <cell r="E6">
+            <v>43.97</v>
+          </cell>
+          <cell r="F6">
+            <v>43.97</v>
+          </cell>
+          <cell r="G6">
+            <v>43.97</v>
+          </cell>
+          <cell r="H6">
+            <v>44</v>
+          </cell>
+          <cell r="I6">
+            <v>46</v>
+          </cell>
+          <cell r="J6">
+            <v>46</v>
+          </cell>
+          <cell r="K6">
+            <v>46</v>
+          </cell>
+          <cell r="L6">
+            <v>46</v>
+          </cell>
+          <cell r="M6">
+            <v>46</v>
+          </cell>
+          <cell r="N6">
+            <v>46</v>
+          </cell>
+          <cell r="O6">
+            <v>57.589999999999996</v>
+          </cell>
+          <cell r="P6">
+            <v>46</v>
+          </cell>
+          <cell r="Q6">
+            <v>46</v>
+          </cell>
+          <cell r="R6">
+            <v>46</v>
+          </cell>
+          <cell r="S6">
+            <v>46</v>
+          </cell>
+          <cell r="T6">
+            <v>46</v>
+          </cell>
+          <cell r="U6">
+            <v>53.07</v>
+          </cell>
+          <cell r="V6">
+            <v>53.07</v>
+          </cell>
+          <cell r="W6">
+            <v>53.07</v>
+          </cell>
+          <cell r="X6">
+            <v>54.376666666666665</v>
+          </cell>
+          <cell r="Y6">
+            <v>48.587500000000006</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>25.02</v>
+          </cell>
+          <cell r="C2">
+            <v>22.01</v>
+          </cell>
+          <cell r="D2">
+            <v>22.01</v>
+          </cell>
+          <cell r="E2">
+            <v>22.01</v>
+          </cell>
+          <cell r="F2">
+            <v>22.01</v>
+          </cell>
+          <cell r="G2">
+            <v>22.01</v>
+          </cell>
+          <cell r="H2">
+            <v>22.01</v>
+          </cell>
+          <cell r="I2">
+            <v>26.02</v>
+          </cell>
+          <cell r="J2">
+            <v>25.02</v>
+          </cell>
+          <cell r="K2">
+            <v>26.02</v>
+          </cell>
+          <cell r="L2">
+            <v>25.02</v>
+          </cell>
+          <cell r="M2">
+            <v>55.2</v>
+          </cell>
+          <cell r="N2">
+            <v>28.087499999999999</v>
+          </cell>
+          <cell r="O2">
+            <v>31.217499999999998</v>
+          </cell>
+          <cell r="P2">
+            <v>21.783333333333331</v>
+          </cell>
+          <cell r="Q2">
+            <v>21.783333333333331</v>
+          </cell>
+          <cell r="R2">
+            <v>27.272500000000001</v>
+          </cell>
+          <cell r="S2">
+            <v>22.01</v>
+          </cell>
+          <cell r="T2">
+            <v>22.01</v>
+          </cell>
+          <cell r="U2">
+            <v>22.01</v>
+          </cell>
+          <cell r="V2">
+            <v>30.21</v>
+          </cell>
+          <cell r="W2">
+            <v>22.01</v>
+          </cell>
+          <cell r="X2">
+            <v>22.01</v>
+          </cell>
+          <cell r="Y2">
+            <v>22.01</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>16.612500000000001</v>
+          </cell>
+          <cell r="C3">
+            <v>31</v>
+          </cell>
+          <cell r="D3">
+            <v>15.860000000000003</v>
+          </cell>
+          <cell r="E3">
+            <v>15.860000000000003</v>
+          </cell>
+          <cell r="F3">
+            <v>15.860000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>15.860000000000003</v>
+          </cell>
+          <cell r="H3">
+            <v>31</v>
+          </cell>
+          <cell r="I3">
+            <v>32</v>
+          </cell>
+          <cell r="J3">
+            <v>32</v>
+          </cell>
+          <cell r="K3">
+            <v>24.01</v>
+          </cell>
+          <cell r="L3">
+            <v>34.86</v>
+          </cell>
+          <cell r="M3">
+            <v>32</v>
+          </cell>
+          <cell r="N3">
+            <v>32</v>
+          </cell>
+          <cell r="O3">
+            <v>53</v>
+          </cell>
+          <cell r="P3">
+            <v>21.783333333333331</v>
+          </cell>
+          <cell r="Q3">
+            <v>21.783333333333331</v>
+          </cell>
+          <cell r="R3">
+            <v>32</v>
+          </cell>
+          <cell r="S3">
+            <v>53</v>
+          </cell>
+          <cell r="T3">
+            <v>53</v>
+          </cell>
+          <cell r="U3">
+            <v>34.107500000000002</v>
+          </cell>
+          <cell r="V3">
+            <v>32</v>
+          </cell>
+          <cell r="W3">
+            <v>32</v>
+          </cell>
+          <cell r="X3">
+            <v>32</v>
+          </cell>
+          <cell r="Y3">
+            <v>20.57</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.69</v>
+          </cell>
+          <cell r="C4">
+            <v>5.69</v>
+          </cell>
+          <cell r="D4">
+            <v>5.69</v>
+          </cell>
+          <cell r="E4">
+            <v>5.69</v>
+          </cell>
+          <cell r="F4">
+            <v>5.69</v>
+          </cell>
+          <cell r="G4">
+            <v>5.69</v>
+          </cell>
+          <cell r="H4">
+            <v>5.69</v>
+          </cell>
+          <cell r="I4">
+            <v>5.69</v>
+          </cell>
+          <cell r="J4">
+            <v>21.13</v>
+          </cell>
+          <cell r="K4">
+            <v>29.61</v>
+          </cell>
+          <cell r="L4">
+            <v>55.2</v>
+          </cell>
+          <cell r="M4">
+            <v>36.605000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>21.13</v>
+          </cell>
+          <cell r="O4">
+            <v>21.13</v>
+          </cell>
+          <cell r="P4">
+            <v>17.87</v>
+          </cell>
+          <cell r="Q4">
+            <v>17.87</v>
+          </cell>
+          <cell r="R4">
+            <v>29.61</v>
+          </cell>
+          <cell r="S4">
+            <v>29.61</v>
+          </cell>
+          <cell r="T4">
+            <v>29.61</v>
+          </cell>
+          <cell r="U4">
+            <v>29.61</v>
+          </cell>
+          <cell r="V4">
+            <v>29.61</v>
+          </cell>
+          <cell r="W4">
+            <v>29.61</v>
+          </cell>
+          <cell r="X4">
+            <v>29.61</v>
+          </cell>
+          <cell r="Y4">
+            <v>17.87</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>17.87</v>
+          </cell>
+          <cell r="C5">
+            <v>17.87</v>
+          </cell>
+          <cell r="D5">
+            <v>17.87</v>
+          </cell>
+          <cell r="E5">
+            <v>17.87</v>
+          </cell>
+          <cell r="F5">
+            <v>17.87</v>
+          </cell>
+          <cell r="G5">
+            <v>17.87</v>
+          </cell>
+          <cell r="H5">
+            <v>17.87</v>
+          </cell>
+          <cell r="I5">
+            <v>17.87</v>
+          </cell>
+          <cell r="J5">
+            <v>15</v>
+          </cell>
+          <cell r="K5">
+            <v>22</v>
+          </cell>
+          <cell r="L5">
+            <v>29.61</v>
+          </cell>
+          <cell r="M5">
+            <v>29.61</v>
+          </cell>
+          <cell r="N5">
+            <v>29.61</v>
+          </cell>
+          <cell r="O5">
+            <v>21.13</v>
+          </cell>
+          <cell r="P5">
+            <v>17.87</v>
+          </cell>
+          <cell r="Q5">
+            <v>17.87</v>
+          </cell>
+          <cell r="R5">
+            <v>17.87</v>
+          </cell>
+          <cell r="S5">
+            <v>29.61</v>
+          </cell>
+          <cell r="T5">
+            <v>29.61</v>
+          </cell>
+          <cell r="U5">
+            <v>29.61</v>
+          </cell>
+          <cell r="V5">
+            <v>29.61</v>
+          </cell>
+          <cell r="W5">
+            <v>29.61</v>
+          </cell>
+          <cell r="X5">
+            <v>29.155000000000001</v>
+          </cell>
+          <cell r="Y5">
+            <v>17.87</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>17.87</v>
+          </cell>
+          <cell r="C6">
+            <v>17.87</v>
+          </cell>
+          <cell r="D6">
+            <v>17.87</v>
+          </cell>
+          <cell r="E6">
+            <v>17.87</v>
+          </cell>
+          <cell r="F6">
+            <v>17.87</v>
+          </cell>
+          <cell r="G6">
+            <v>17.87</v>
+          </cell>
+          <cell r="H6">
+            <v>17.87</v>
+          </cell>
+          <cell r="I6">
+            <v>17.87</v>
+          </cell>
+          <cell r="J6">
+            <v>28</v>
+          </cell>
+          <cell r="K6">
+            <v>28</v>
+          </cell>
+          <cell r="L6">
+            <v>29.61</v>
+          </cell>
+          <cell r="M6">
+            <v>29.61</v>
+          </cell>
+          <cell r="N6">
+            <v>29.61</v>
+          </cell>
+          <cell r="O6">
+            <v>29.61</v>
+          </cell>
+          <cell r="P6">
+            <v>29.61</v>
+          </cell>
+          <cell r="Q6">
+            <v>29.61</v>
+          </cell>
+          <cell r="R6">
+            <v>29.61</v>
+          </cell>
+          <cell r="S6">
+            <v>29.62</v>
+          </cell>
+          <cell r="T6">
+            <v>29.61</v>
+          </cell>
+          <cell r="U6">
+            <v>55.2</v>
+          </cell>
+          <cell r="V6">
+            <v>29.62</v>
+          </cell>
+          <cell r="W6">
+            <v>33</v>
+          </cell>
+          <cell r="X6">
+            <v>33</v>
+          </cell>
+          <cell r="Y6">
+            <v>29.61</v>
           </cell>
         </row>
       </sheetData>
@@ -1903,7 +3396,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,22 +3409,22 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F1" s="1">
         <v>0.2</v>
       </c>
       <c r="G1" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1954,7 +3447,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:Y6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,99 +3535,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.4</v>
+        <v>50.67</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>24.1</v>
+        <v>49.19</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>19.72</v>
+        <v>46.22</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>18.96</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>19.510000000000002</v>
+        <v>39.01</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>22.07</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.7</v>
+        <v>47.75</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.049999999999997</v>
+        <v>50.69</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.01</v>
+        <v>52.93</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.85</v>
+        <v>52.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.02</v>
+        <v>50.67</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.3</v>
+        <v>49.73</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.05</v>
+        <v>47.44</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.049999999999997</v>
+        <v>47.01</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.68</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.85</v>
+        <v>42.97</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.09</v>
+        <v>43.68</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.36</v>
+        <v>46.81</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.29</v>
+        <v>49.51</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.97</v>
+        <v>50</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>54.26</v>
+        <v>50</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.75</v>
+        <v>47.11</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.24</v>
+        <v>38.6</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.6</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2143,99 +3636,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.84</v>
+        <v>31.86</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.43</v>
+        <v>30.53</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.75</v>
+        <v>29.57</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.31</v>
+        <v>29.53</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.5</v>
+        <v>29.77</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.03</v>
+        <v>30.47</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.55</v>
+        <v>31.37</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.52</v>
+        <v>40.01</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>53.01</v>
+        <v>45.19</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>55.6</v>
+        <v>46.47</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>55.68</v>
+        <v>46.29</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>53.7</v>
+        <v>44.49</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>51.86</v>
+        <v>43.01</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.01</v>
+        <v>41.25</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.45</v>
+        <v>37.97</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.27</v>
+        <v>36.01</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.36</v>
+        <v>38.01</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>54.96</v>
+        <v>41.51</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>59.96</v>
+        <v>45.25</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>59.86</v>
+        <v>46.55</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>56.5</v>
+        <v>46.75</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.95</v>
+        <v>45.09</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>51.13</v>
+        <v>40.15</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.64</v>
+        <v>31.17</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2244,99 +3737,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.11</v>
+        <v>30.67</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.03</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.25</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.82</v>
+        <v>17.5</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.99</v>
+        <v>30.53</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.86</v>
+        <v>38.53</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.47</v>
+        <v>42.99</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>54.07</v>
+        <v>43.52</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>54.66</v>
+        <v>44.5</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>54</v>
+        <v>44.02</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>53.48</v>
+        <v>43.85</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.36</v>
+        <v>43.01</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.84</v>
+        <v>40.21</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>53.95</v>
+        <v>41.25</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>54.59</v>
+        <v>42.5</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>57.76</v>
+        <v>45</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>61.08</v>
+        <v>48.43</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>60.54</v>
+        <v>52.8</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>56.75</v>
+        <v>52.49</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.44</v>
+        <v>48.1</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>51.86</v>
+        <v>43.75</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.26</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2345,99 +3838,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.87</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.19</v>
+        <v>31.18</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.68</v>
+        <v>30.8</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.5</v>
+        <v>29.9</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.799999999999997</v>
+        <v>29.72</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.549999999999997</v>
+        <v>31.1</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.6</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.549999999999997</v>
+        <v>42.1</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.549999999999997</v>
+        <v>42.89</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.549999999999997</v>
+        <v>44.1</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.549999999999997</v>
+        <v>43.51</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.549999999999997</v>
+        <v>42.1</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.549999999999997</v>
+        <v>40.36</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.549999999999997</v>
+        <v>40.08</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.6</v>
+        <v>36.81</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.5</v>
+        <v>32.49</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.5</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.01</v>
+        <v>43.15</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>55.16</v>
+        <v>43.2</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>57.4</v>
+        <v>43.98</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>53.86</v>
+        <v>43.15</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>53.45</v>
+        <v>40.01</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.72</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2446,99 +3939,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
+        <v>30.87</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.43</v>
+        <v>29.48</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.1</v>
+        <v>26.86</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.11</v>
+        <v>25.71</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.549999999999997</v>
+        <v>26.01</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.700000000000003</v>
+        <v>27.97</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.6</v>
+        <v>31.09</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.34</v>
+        <v>40.25</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.45</v>
+        <v>43.8</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>51.6</v>
+        <v>43.19</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52</v>
+        <v>43.68</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>51.25</v>
+        <v>42.72</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.56</v>
+        <v>41.37</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.57</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.57</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.45</v>
+        <v>39.11</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.25</v>
+        <v>41.37</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>54.23</v>
+        <v>43.98</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>58.65</v>
+        <v>47.11</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>60.43</v>
+        <v>49.73</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>60.03</v>
+        <v>51.75</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>55.03</v>
+        <v>50.3</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.25</v>
+        <v>46.16</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.45</v>
+        <v>44.01</v>
       </c>
     </row>
   </sheetData>
@@ -2552,7 +4045,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,99 +4133,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>28.03</v>
+        <v>2.99</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>26.28</v>
+        <v>2.99</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.32</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.99</v>
+        <v>3.48</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.5</v>
+        <v>2.99</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>21.67</v>
+        <v>6.39</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.920000000000002</v>
+        <v>7.26</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>14.28</v>
+        <v>4.59</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.5</v>
+        <v>5.19</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.92</v>
+        <v>1.19</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.33</v>
+        <v>2.68</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.49</v>
+        <v>2.99</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.24</v>
+        <v>3.19</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.99</v>
+        <v>3.68</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.65</v>
+        <v>4.01</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.63</v>
+        <v>4</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.93</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3</v>
+        <v>0.99</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.15</v>
+        <v>2.29</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.15</v>
+        <v>0.99</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.33</v>
+        <v>1.99</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.42</v>
+        <v>3.99</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.91</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2741,99 +4234,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>14.29</v>
+        <v>24.41</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.98</v>
+        <v>18.39</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.14</v>
+        <v>16.53</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.13</v>
+        <v>17.43</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.8</v>
+        <v>16.59</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.32</v>
+        <v>24.63</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17</v>
+        <v>25.36</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>20.84</v>
+        <v>12.1</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.7200000000000006</v>
+        <v>8.52</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.98</v>
+        <v>3.99</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.47</v>
+        <v>6.87</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.19</v>
+        <v>2.99</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0399999999999991</v>
+        <v>5.04</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0399999999999991</v>
+        <v>7.34</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.61</v>
+        <v>10.42</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.61</v>
+        <v>11.75</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.51</v>
+        <v>10.38</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0399999999999991</v>
+        <v>4.29</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.15</v>
+        <v>6.55</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.86</v>
+        <v>5.95</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.19</v>
+        <v>3.99</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.61</v>
+        <v>1.99</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.32</v>
+        <v>6.94</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.9</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2842,99 +4335,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>15.11</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.24</v>
+        <v>18.79</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.71</v>
+        <v>22.38</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.94</v>
+        <v>24.35</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.33</v>
+        <v>25.01</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.01</v>
+        <v>20.48</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>15.51</v>
+        <v>22.13</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.6</v>
+        <v>12.36</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10</v>
+        <v>5.59</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.5</v>
+        <v>4.01</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5</v>
+        <v>3.49</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7</v>
+        <v>5.14</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7</v>
+        <v>3.99</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.5</v>
+        <v>4.29</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7</v>
+        <v>4.49</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7</v>
+        <v>3.99</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10</v>
+        <v>3.99</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7</v>
+        <v>5.39</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.5</v>
+        <v>3.99</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10</v>
+        <v>3.99</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.5</v>
+        <v>5.99</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2943,99 +4436,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.67</v>
+        <v>23.32</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.29</v>
+        <v>20.5</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.83</v>
+        <v>15.12</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.88</v>
+        <v>15.83</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.5</v>
+        <v>15.97</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8699999999999992</v>
+        <v>16.63</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.77</v>
+        <v>13.89</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.84</v>
+        <v>5.68</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.06</v>
+        <v>1.98</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.27</v>
+        <v>0.99</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.57</v>
+        <v>1.99</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.7799999999999994</v>
+        <v>2.59</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8000000000000007</v>
+        <v>5.19</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0299999999999994</v>
+        <v>4.72</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.11</v>
+        <v>5.29</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.99</v>
+        <v>4.82</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.82</v>
+        <v>4.82</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.98</v>
+        <v>3.04</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.51</v>
+        <v>5.49</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>0.73</v>
+        <v>5.09</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>0.63</v>
+        <v>2.99</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>0.76</v>
+        <v>3.49</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.84</v>
+        <v>8.09</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.95</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3044,99 +4537,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.83</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.06</v>
+        <v>21.75</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.64</v>
+        <v>20.29</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.42</v>
+        <v>21.33</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.65</v>
+        <v>21.05</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.53</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>15.26</v>
+        <v>21.87</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.61</v>
+        <v>7.87</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.01</v>
+        <v>3.99</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8800000000000008</v>
+        <v>1.99</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.01</v>
+        <v>1.44</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.74</v>
+        <v>1.99</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.51</v>
+        <v>1.99</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.6</v>
+        <v>1.99</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.51</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.44</v>
+        <v>1.99</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.59</v>
+        <v>1.99</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.73</v>
+        <v>1.99</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.6300000000000008</v>
+        <v>2.52</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.01</v>
+        <v>2.09</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.26</v>
+        <v>1.44</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.73</v>
+        <v>1.79</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.01</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -3175,7 +4668,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,99 +4756,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.322500000000005</v>
+        <v>62.57</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.69</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.69</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>43.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.042499999999997</v>
+        <v>43.97</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.4</v>
+        <v>43.97</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.69</v>
+        <v>62.57</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>99</v>
+        <v>62.57</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>99</v>
+        <v>44.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.4</v>
+        <v>47</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>62.57</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>62.57</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>62.57</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>62.57</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>99</v>
+        <v>62.57</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>70.03</v>
+        <v>62.57</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>99</v>
+        <v>61.55</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>99</v>
+        <v>61.57</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51</v>
+        <v>61.57</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>75.75</v>
+        <v>61.57</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.945</v>
+        <v>58.55</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51</v>
+        <v>46.97</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3364,99 +4857,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.48</v>
+        <v>43.97</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>43.97</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>43.97</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>43.97</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>43.97</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>51.65</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>70.03</v>
+        <v>51.65</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>51.65</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55</v>
+        <v>51.65</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.68</v>
+        <v>51.65</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>51.65</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>51.65</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>51.65</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>51.65</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>51.65</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>51.65</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>51.65</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>98</v>
+        <v>51.65</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>97</v>
+        <v>51.64</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59</v>
+        <v>51.64</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>66</v>
+        <v>51.64</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>97</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3465,99 +4958,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>43.97</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>43.97</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>43.97</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>43.97</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>51.65</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.54</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51</v>
+        <v>58.58</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>58.58</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>58.55</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>58.55</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>46</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>46</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46</v>
+        <v>51.555</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>51.3</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>98</v>
+        <v>53.07</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>53.07</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>66</v>
+        <v>53.07</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>54.376666666666665</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3566,99 +5059,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>50.19</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>45.4</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>43.97</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>43.4</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>57.589999999999996</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.2</v>
+        <v>42.4</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>45.4</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>45.4</v>
+        <v>46</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>45.4</v>
+        <v>58.58</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.922499999999999</v>
+        <v>58.58</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3667,99 +5160,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>50.19</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>43.97</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>43.97</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>43.97</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>43.97</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>43.97</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.69</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.69</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.69</v>
+        <v>46</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.69</v>
+        <v>46</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.69</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>57.589999999999996</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.4</v>
+        <v>53.07</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>53.07</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>53.07</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>54.376666666666665</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.69</v>
+        <v>48.587500000000006</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +5265,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,99 +5353,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.01</v>
+        <v>25.02</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.646666666666668</v>
+        <v>22.01</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.190000000000001</v>
+        <v>22.01</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.356666666666662</v>
+        <v>22.01</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.190000000000001</v>
+        <v>22.01</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.190000000000001</v>
+        <v>22.01</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.356666666666662</v>
+        <v>22.01</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.75</v>
+        <v>26.02</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.46</v>
+        <v>25.02</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.375</v>
+        <v>26.02</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>42.695</v>
+        <v>25.02</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.936666666666667</v>
+        <v>55.2</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.646666666666668</v>
+        <v>28.087499999999999</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.75</v>
+        <v>31.217499999999998</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>21.783333333333331</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.75</v>
+        <v>21.783333333333331</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.375</v>
+        <v>27.272500000000001</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>22.01</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>22.01</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.5</v>
+        <v>22.01</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>30.21</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>44.44</v>
+        <v>22.01</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>42.42</v>
+        <v>22.01</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.52333333333333</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3961,99 +5454,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.963333333333335</v>
+        <v>16.612500000000001</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.19</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>15.860000000000003</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>15.860000000000003</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.03</v>
+        <v>15.860000000000003</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.03</v>
+        <v>15.860000000000003</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>44.9</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.375</v>
+        <v>24.01</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>42.695</v>
+        <v>34.86</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>53</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>21.783333333333331</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>21.783333333333331</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.375</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>53</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>53</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.54</v>
+        <v>34.107500000000002</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>32</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>32</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>20.57</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4062,99 +5555,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>5.69</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.646666666666668</v>
+        <v>5.69</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>5.69</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.356666666666662</v>
+        <v>5.69</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.67</v>
+        <v>5.69</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.636666666666667</v>
+        <v>5.69</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>5.69</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.19</v>
+        <v>5.69</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.19</v>
+        <v>21.13</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>54.7</v>
+        <v>55.2</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>36.605000000000004</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>21.13</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>21.13</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>17.87</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.543333333333333</v>
+        <v>17.87</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.52</v>
+        <v>29.61</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.69</v>
+        <v>29.61</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.52333333333333</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4163,99 +5656,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>0</v>
+        <v>17.87</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>17.87</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>17.87</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>17.87</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.145</v>
+        <v>17.87</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.636666666666667</v>
+        <v>17.87</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.356666666666662</v>
+        <v>17.87</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.3825</v>
+        <v>17.87</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.46</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.375</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>42.695</v>
+        <v>29.61</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.936666666666667</v>
+        <v>29.61</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.646666666666668</v>
+        <v>29.61</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>21.13</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>17.87</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.54</v>
+        <v>29.61</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.52</v>
+        <v>29.61</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>38.465000000000003</v>
+        <v>29.155000000000001</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4264,99 +5757,2514 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>17.87</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>29.61</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>29.61</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>29.61</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>29.61</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.19</v>
+        <v>29.61</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.543333333333333</v>
+        <v>29.61</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.375</v>
+        <v>29.61</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.62</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.61</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>55.2</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>29.62</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.06</v>
+        <v>33</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.69</v>
+        <v>29.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51365E97-6E69-401A-9DFD-893A2C3FF085}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.65</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.5</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.7</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.1</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.1</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.51</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.64</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39.270000000000003</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.119999999999997</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.68</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.659999999999997</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.28</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.65</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.840000000000003</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.18</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.1</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.99</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.99</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.47</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.79</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.16</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.77</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.85</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.26</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.15</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.520000000000003</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.979999999999997</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.5</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.130000000000003</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.57</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.42</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.01</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.549999999999997</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.69</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.22</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.18</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.7</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.63</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.26</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.77</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.99</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.99</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.53</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.57</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.77</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.36</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.11</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.92</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.19</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.5</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.04</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.24</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.03</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.22</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.65</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39.93</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.65</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.51</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.56</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.32</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.5</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.72</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.5</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.5</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.56</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.34</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.02</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.18</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.53</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.47</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.49</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.74</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.49</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.99</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.49</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.24</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.01</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB008B8-ED0A-4A84-975C-A342158CCFB6}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.09</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.62</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.62</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.62</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.62</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.42</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.72</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.96</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.46</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.48</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.4</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.89</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.06</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.06</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.75</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.17</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.6</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.72</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.27</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>12.24</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.84</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.93</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>17.93</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>15.6</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.71</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.97</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.08</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.13</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.4</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.84</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.6</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.7</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.38</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.8</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.09</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.52</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.56</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.92</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.15</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.79</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.65</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.19</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.76</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.66</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.8</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.82</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.56</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.63</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.42</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.66</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.32</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.81</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.81</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>3.33</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.88</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.98</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.64</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.72</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.64</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.72</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.23</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.19</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.72</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.56</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.75</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.11</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.66</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.58</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.56</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.09</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.33</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.62</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.58</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.33</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.8</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.8</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.25</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.77</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.09</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.43</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.85</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.44</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.79</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.14</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.51</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.17</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.6</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.29</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.62</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.53</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3DC1DB-E732-4F79-89B1-5F652B3EE8D7}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38.4</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.12</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.087499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>42</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>69.040000000000006</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>95</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.66</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>64.64</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>42.11</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.58</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.56</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06EB1E-49A0-417F-AD8B-905096775CB2}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>15.6</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.2</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.605000000000004</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>35.513333333333328</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>23.7575</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>41.627499999999998</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.7575</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>29.98</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>28</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>23.267499999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>20.36</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>60</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>29.01</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>29.02</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>29.02</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.2</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.2</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>18.71</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.2</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>35.513333333333328</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>21.05</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>21.05</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>21.05</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>18.71</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>18.71</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26.03</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>45.055</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>44.794999999999995</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26.03</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26.03</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
       </c>
     </row>
   </sheetData>
